--- a/Results/ResultsExtraktion.xlsx
+++ b/Results/ResultsExtraktion.xlsx
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>FFT</t>
-  </si>
-  <si>
-    <t>MagnitudeOfSpectrum</t>
   </si>
   <si>
     <t>SpectralCentroid</t>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>AmplitudeOfMaximumInChromagram</t>
+  </si>
+  <si>
+    <t>AmplitudeOfSpectrum</t>
   </si>
 </sst>
 </file>
@@ -228,16 +228,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.327</c:v>
+                  <c:v>1.319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75</c:v>
+                  <c:v>0.751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6739999999999999</c:v>
+                  <c:v>2.6669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -246,10 +246,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3360000000000001</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82699999999999996</c:v>
+                  <c:v>0.73599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -264,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MagnitudeOfSpectrum</c:v>
+                  <c:v>AmplitudeOfSpectrum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,16 +324,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>0.69099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>1.3959999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -342,10 +342,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1000000000000002E-2</c:v>
+                  <c:v>0.68899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,10 +420,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -516,10 +516,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -612,10 +612,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -708,16 +708,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1999999999999998E-2</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -810,10 +810,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -906,10 +906,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1002,10 +1002,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.35299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30599999999999999</c:v>
+                  <c:v>0.30399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1104,10 +1104,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.105</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1200,10 +1200,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1296,10 +1296,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1398,10 +1398,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,10 +1494,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,10 +1590,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,23 +1686,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="56398592"/>
-        <c:axId val="56400128"/>
+        <c:axId val="75533312"/>
+        <c:axId val="75552256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56398592"/>
+        <c:axId val="75533312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,17 +1711,17 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56400128"/>
+        <c:crossAx val="75552256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56400128"/>
+        <c:axId val="75552256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1747,7 +1746,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56398592"/>
+        <c:crossAx val="75533312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,7 +1759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1846,16 +1845,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>86.618798955613585</c:v>
+                  <c:v>60.200821542674582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.240875912408754</c:v>
+                  <c:v>86.025200458190128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.916317991631786</c:v>
+                  <c:v>57.354838709677423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.21239380309845</c:v>
+                  <c:v>71.374045801526705</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1864,10 +1863,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.754385964912288</c:v>
+                  <c:v>64.251207729468604</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.49941656942822</c:v>
+                  <c:v>89.75609756097559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1881,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MagnitudeOfSpectrum</c:v>
+                  <c:v>AmplitudeOfSpectrum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1942,16 +1941,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.9373368146214105</c:v>
+                  <c:v>31.538110451848471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48661800486618007</c:v>
+                  <c:v>4.8109965635738829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3610280932456664</c:v>
+                  <c:v>30.021505376344088</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34982508745627194</c:v>
+                  <c:v>4.5324427480916025</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1960,10 +1959,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8771929824561413</c:v>
+                  <c:v>33.285024154589372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3500583430571762</c:v>
+                  <c:v>6.3414634146341458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,10 +2037,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.4804177545691908</c:v>
+                  <c:v>2.5559105431309908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0681265206812651</c:v>
+                  <c:v>2.6345933562428403</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2134,10 +2133,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.109660574412533</c:v>
+                  <c:v>0.59333637608397993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24330900243309003</c:v>
+                  <c:v>0.45819014891179838</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2230,10 +2229,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.6318537859007836</c:v>
+                  <c:v>0.95846645367412153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12165450121654502</c:v>
+                  <c:v>0.45819014891179838</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2326,16 +2325,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.2219321148825069</c:v>
+                  <c:v>4.1533546325878596</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8394160583941597</c:v>
+                  <c:v>5.61282932416953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6921697549312613</c:v>
+                  <c:v>3.3763440860215055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5977011494252871</c:v>
+                  <c:v>4.9618320610687023</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2428,10 +2427,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5839808726838014</c:v>
+                  <c:v>1.0107526881720432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7486256871564221</c:v>
+                  <c:v>3.4828244274809159</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2524,10 +2523,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1356843992827255</c:v>
+                  <c:v>0.64516129032258074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7991004497751124</c:v>
+                  <c:v>1.1450381679389312</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2620,10 +2619,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.310818888224746</c:v>
+                  <c:v>7.591397849462366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.292353823088456</c:v>
+                  <c:v>14.503816793893128</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2722,10 +2721,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.659090909090914</c:v>
+                  <c:v>62.921348314606753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.714285714285722</c:v>
+                  <c:v>89.0625</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2818,10 +2817,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.795454545454547</c:v>
+                  <c:v>33.146067415730336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5238095238095237</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2914,10 +2913,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5454545454545459</c:v>
+                  <c:v>3.9325842696629221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7619047619047619</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3016,10 +3015,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4210526315789474</c:v>
+                  <c:v>0.48309178743961356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.24390243902439024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,10 +3111,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8947368421052635</c:v>
+                  <c:v>1.3526570048309181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3500583430571762</c:v>
+                  <c:v>0.24390243902439024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,10 +3207,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77192982456140347</c:v>
+                  <c:v>0.48309178743961356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3337222870478413</c:v>
+                  <c:v>3.0487804878048776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,23 +3303,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28070175438596495</c:v>
+                  <c:v>0.14492753623188406</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46674445740956827</c:v>
+                  <c:v>0.3658536585365853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="56646272"/>
-        <c:axId val="56664448"/>
+        <c:axId val="52848128"/>
+        <c:axId val="52850048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56646272"/>
+        <c:axId val="52848128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,14 +3328,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56664448"/>
+        <c:crossAx val="52850048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56664448"/>
+        <c:axId val="52850048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3371,7 +3369,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56646272"/>
+        <c:crossAx val="52848128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3384,7 +3382,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3742,8 +3740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3861,16 +3859,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>1.327</v>
+        <v>1.319</v>
       </c>
       <c r="C3" s="1">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="D3" s="1">
-        <v>2.6739999999999999</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5049999999999999</v>
+        <v>1.496</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -3879,29 +3877,29 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3360000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="I3" s="1">
-        <v>0.82699999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="1">
         <f>B3*100/K19</f>
-        <v>86.618798955613585</v>
+        <v>60.200821542674582</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:R3" si="0">C3*100/L19</f>
-        <v>91.240875912408754</v>
+        <v>86.025200458190128</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>79.916317991631786</v>
+        <v>57.354838709677423</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>75.21239380309845</v>
+        <v>71.374045801526705</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="0"/>
@@ -3913,28 +3911,28 @@
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="0"/>
-        <v>93.754385964912288</v>
+        <v>64.251207729468604</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="0"/>
-        <v>96.49941656942822</v>
+        <v>89.75609756097559</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="C4" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>7.9000000000000001E-2</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -3943,29 +3941,29 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>4.1000000000000002E-2</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1">
         <f>B4*100/K19</f>
-        <v>2.9373368146214105</v>
+        <v>31.538110451848471</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:R4" si="1">C4*100/L19</f>
-        <v>0.48661800486618007</v>
+        <v>4.8109965635738829</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
-        <v>2.3610280932456664</v>
+        <v>30.021505376344088</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="1"/>
-        <v>0.34982508745627194</v>
+        <v>4.5324427480916025</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="1"/>
@@ -3977,22 +3975,22 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="1"/>
-        <v>2.8771929824561413</v>
+        <v>33.285024154589372</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="1"/>
-        <v>0.3500583430571762</v>
+        <v>6.3414634146341458</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -4013,15 +4011,15 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1">
         <f>B5*100/K19</f>
-        <v>2.4804177545691908</v>
+        <v>2.5559105431309908</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:R5" si="2">C5*100/L19</f>
-        <v>2.0681265206812651</v>
+        <v>2.6345933562428403</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
@@ -4050,13 +4048,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -4077,15 +4075,15 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
         <f>B6*100/K19</f>
-        <v>1.109660574412533</v>
+        <v>0.59333637608397993</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" ref="L6:R6" si="3">C6*100/L19</f>
-        <v>0.24330900243309003</v>
+        <v>0.45819014891179838</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
@@ -4114,13 +4112,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4141,15 +4139,15 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1">
         <f>B7*100/K19</f>
-        <v>1.6318537859007836</v>
+        <v>0.95846645367412153</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:R7" si="4">C7*100/L19</f>
-        <v>0.12165450121654502</v>
+        <v>0.45819014891179838</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="4"/>
@@ -4178,19 +4176,19 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>0.08</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D8" s="1">
         <v>0.157</v>
       </c>
       <c r="E8" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -4205,23 +4203,23 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
         <f>B8*100/K19</f>
-        <v>5.2219321148825069</v>
+        <v>4.1533546325878596</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" ref="L8:R8" si="5">C8*100/L19</f>
-        <v>5.8394160583941597</v>
+        <v>5.61282932416953</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
-        <v>4.6921697549312613</v>
+        <v>3.3763440860215055</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>4.5977011494252871</v>
+        <v>4.9618320610687023</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
@@ -4242,7 +4240,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -4251,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>5.2999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>5.5E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -4269,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1">
         <f>B9*100/K19</f>
@@ -4281,11 +4279,11 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" si="6"/>
-        <v>1.5839808726838014</v>
+        <v>1.0107526881720432</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="6"/>
-        <v>2.7486256871564221</v>
+        <v>3.4828244274809159</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
@@ -4306,7 +4304,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -4315,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -4333,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1">
         <f>B10*100/K19</f>
@@ -4345,11 +4343,11 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" si="7"/>
-        <v>1.1356843992827255</v>
+        <v>0.64516129032258074</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="7"/>
-        <v>1.7991004497751124</v>
+        <v>1.1450381679389312</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="7"/>
@@ -4370,7 +4368,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -4379,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.34499999999999997</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.30599999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -4397,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1">
         <f>B11*100/K19</f>
@@ -4409,11 +4407,11 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" si="8"/>
-        <v>10.310818888224746</v>
+        <v>7.591397849462366</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="8"/>
-        <v>15.292353823088456</v>
+        <v>14.503816793893128</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="8"/>
@@ -4434,7 +4432,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -4449,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.105</v>
+        <v>0.112</v>
       </c>
       <c r="G12" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -4461,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1">
         <f>B12*100/K19</f>
@@ -4481,11 +4479,11 @@
       </c>
       <c r="O12" s="1">
         <f t="shared" si="9"/>
-        <v>59.659090909090914</v>
+        <v>62.921348314606753</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="9"/>
-        <v>85.714285714285722</v>
+        <v>89.0625</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="9"/>
@@ -4498,7 +4496,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -4513,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>6.3E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -4525,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="1">
         <f>B13*100/K19</f>
@@ -4545,11 +4543,11 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" si="10"/>
-        <v>35.795454545454547</v>
+        <v>33.146067415730336</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="10"/>
-        <v>9.5238095238095237</v>
+        <v>3.125</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="10"/>
@@ -4562,7 +4560,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -4577,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -4589,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1">
         <f>B14*100/K19</f>
@@ -4609,11 +4607,11 @@
       </c>
       <c r="O14" s="1">
         <f t="shared" si="11"/>
-        <v>4.5454545454545459</v>
+        <v>3.9325842696629221</v>
       </c>
       <c r="P14" s="1">
         <f>G14*100/P19</f>
-        <v>4.7619047619047619</v>
+        <v>7.8125</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="11"/>
@@ -4626,7 +4624,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -4647,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1">
         <f>B15*100/K19</f>
@@ -4681,16 +4679,16 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="12"/>
-        <v>0.4210526315789474</v>
+        <v>0.48309178743961356</v>
       </c>
       <c r="R15" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.24390243902439024</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -4711,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>2.7E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I16" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1">
         <f>B16*100/K19</f>
@@ -4745,16 +4743,16 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="13"/>
-        <v>1.8947368421052635</v>
+        <v>1.3526570048309181</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="13"/>
-        <v>0.3500583430571762</v>
+        <v>0.24390243902439024</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -4775,13 +4773,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="1">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" s="1">
         <f>B17*100/K19</f>
@@ -4809,16 +4807,16 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="14"/>
-        <v>0.77192982456140347</v>
+        <v>0.48309178743961356</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="14"/>
-        <v>2.3337222870478413</v>
+        <v>3.0487804878048776</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -4839,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="1">
         <f>B18*100/K19</f>
@@ -4873,45 +4871,45 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="15"/>
-        <v>0.28070175438596495</v>
+        <v>0.14492753623188406</v>
       </c>
       <c r="R18" s="1">
         <f t="shared" si="15"/>
-        <v>0.46674445740956827</v>
+        <v>0.3658536585365853</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="K19">
-        <f>SUM(B3:B18)</f>
-        <v>1.5319999999999998</v>
+        <f t="shared" ref="K19:R19" si="16">SUM(B3:B18)</f>
+        <v>2.1909999999999998</v>
       </c>
       <c r="L19">
-        <f>SUM(C3:C18)</f>
-        <v>0.82200000000000006</v>
+        <f t="shared" si="16"/>
+        <v>0.87300000000000011</v>
       </c>
       <c r="M19">
-        <f>SUM(D3:D18)</f>
-        <v>3.3460000000000001</v>
+        <f t="shared" si="16"/>
+        <v>4.6499999999999995</v>
       </c>
       <c r="N19">
-        <f>SUM(E3:E18)</f>
-        <v>2.0009999999999999</v>
+        <f t="shared" si="16"/>
+        <v>2.0960000000000001</v>
       </c>
       <c r="O19">
-        <f>SUM(F3:F18)</f>
-        <v>0.17599999999999999</v>
+        <f t="shared" si="16"/>
+        <v>0.17799999999999999</v>
       </c>
       <c r="P19">
-        <f>SUM(G3:G18)</f>
-        <v>6.3E-2</v>
+        <f t="shared" si="16"/>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q19">
-        <f>SUM(H3:H18)</f>
-        <v>1.4249999999999998</v>
+        <f t="shared" si="16"/>
+        <v>2.0699999999999998</v>
       </c>
       <c r="R19">
-        <f>SUM(I3:I18)</f>
-        <v>0.85699999999999998</v>
+        <f t="shared" si="16"/>
+        <v>0.82000000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ResultsExtraktion.xlsx
+++ b/Results/ResultsExtraktion.xlsx
@@ -1697,11 +1697,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="75533312"/>
-        <c:axId val="75552256"/>
+        <c:axId val="77442048"/>
+        <c:axId val="77460992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75533312"/>
+        <c:axId val="77442048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,14 +1711,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75552256"/>
+        <c:crossAx val="77460992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75552256"/>
+        <c:axId val="77460992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1746,7 +1746,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75533312"/>
+        <c:crossAx val="77442048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3314,28 +3314,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="52848128"/>
-        <c:axId val="52850048"/>
+        <c:axId val="50750976"/>
+        <c:axId val="50752896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52848128"/>
+        <c:axId val="50750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52850048"/>
+        <c:crossAx val="50752896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52850048"/>
+        <c:axId val="50752896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3369,7 +3366,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52848128"/>
+        <c:crossAx val="50750976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3382,8 +3379,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3740,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -4924,8 +4921,8 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4938,7 +4935,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4951,6 +4948,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/ResultsExtraktion.xlsx
+++ b/Results/ResultsExtraktion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>AmplitudeOfSpectrum</t>
   </si>
+  <si>
+    <t>NEON FFT Optimized</t>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -128,17 +131,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -175,9 +236,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -186,16 +247,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -203,18 +264,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -223,10 +296,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$I$3</c:f>
+              <c:f>Tabelle1!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.319</c:v>
                 </c:pt>
@@ -234,22 +307,34 @@
                   <c:v>0.751</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2.6669999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.496</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,9 +356,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -282,16 +367,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -299,18 +384,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -319,10 +416,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$I$4</c:f>
+              <c:f>Tabelle1!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.69099999999999995</c:v>
                 </c:pt>
@@ -330,22 +427,34 @@
                   <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.3959999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.68899999999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -367,9 +476,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -378,16 +487,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -395,18 +504,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -415,10 +536,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$I$5</c:f>
+              <c:f>Tabelle1!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
@@ -426,7 +547,7 @@
                   <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -441,6 +562,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -463,9 +596,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -474,16 +607,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -491,18 +624,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -511,10 +656,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$6:$I$6</c:f>
+              <c:f>Tabelle1!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
@@ -522,7 +667,7 @@
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -537,6 +682,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -559,9 +716,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -570,16 +727,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -587,18 +744,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -607,10 +776,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$7:$I$7</c:f>
+              <c:f>Tabelle1!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
@@ -618,7 +787,7 @@
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -633,6 +802,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -655,9 +836,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -666,16 +847,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -683,18 +864,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -703,10 +896,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$8:$I$8</c:f>
+              <c:f>Tabelle1!$B$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
@@ -714,21 +907,33 @@
                   <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.157</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.104</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -751,9 +956,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -762,16 +967,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -779,18 +984,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -799,10 +1016,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$I$9</c:f>
+              <c:f>Tabelle1!$B$9:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -810,21 +1027,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.7E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -847,9 +1076,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -858,16 +1087,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -875,18 +1104,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -895,10 +1136,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$10:$I$10</c:f>
+              <c:f>Tabelle1!$B$10:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -906,21 +1147,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,9 +1196,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -954,16 +1207,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -971,18 +1224,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -991,10 +1256,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$11:$I$11</c:f>
+              <c:f>Tabelle1!$B$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1002,21 +1267,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.35299999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.30399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.29799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1039,9 +1316,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1050,16 +1327,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1067,18 +1344,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1087,10 +1376,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$12:$I$12</c:f>
+              <c:f>Tabelle1!$B$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1104,15 +1393,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.112</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1135,9 +1436,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1146,16 +1447,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1163,18 +1464,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1183,10 +1496,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$13:$I$13</c:f>
+              <c:f>Tabelle1!$B$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1200,15 +1513,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1231,9 +1556,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1242,16 +1567,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1259,18 +1584,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1279,10 +1616,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$14:$I$14</c:f>
+              <c:f>Tabelle1!$B$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1296,15 +1633,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1327,9 +1676,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1338,16 +1687,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1355,18 +1704,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1375,10 +1736,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$15:$I$15</c:f>
+              <c:f>Tabelle1!$B$15:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1398,10 +1759,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,9 +1796,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1434,16 +1807,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1451,18 +1824,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1471,10 +1856,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$16:$I$16</c:f>
+              <c:f>Tabelle1!$B$16:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1494,10 +1879,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,9 +1916,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1530,16 +1927,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1547,18 +1944,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1567,10 +1976,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$17:$I$17</c:f>
+              <c:f>Tabelle1!$B$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1590,10 +1999,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,9 +2036,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$I$2</c:f>
+              <c:f>Tabelle1!$B$1:$M$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1626,16 +2047,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1643,18 +2064,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1663,10 +2096,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$18:$I$18</c:f>
+              <c:f>Tabelle1!$B$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1686,10 +2119,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,11 +2142,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="77442048"/>
-        <c:axId val="77460992"/>
+        <c:axId val="48704512"/>
+        <c:axId val="48723456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77442048"/>
+        <c:axId val="48704512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,14 +2156,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77460992"/>
+        <c:crossAx val="48723456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77460992"/>
+        <c:axId val="48723456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1746,7 +2191,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77442048"/>
+        <c:crossAx val="48704512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +2204,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1781,7 +2226,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$3</c:f>
+              <c:f>Tabelle1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1792,9 +2237,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1803,16 +2248,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1820,18 +2265,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1840,10 +2297,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$3:$R$3</c:f>
+              <c:f>Tabelle1!$O$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>60.200821542674582</c:v>
                 </c:pt>
@@ -1851,22 +2308,34 @@
                   <c:v>86.025200458190128</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>31.677018633540371</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>57.354838709677423</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>71.374045801526705</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.077389984825492</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>64.251207729468604</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>89.75609756097559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.905660377358487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1877,7 +2346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$4</c:f>
+              <c:f>Tabelle1!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,9 +2357,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1899,16 +2368,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -1916,18 +2385,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1936,10 +2417,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$4:$R$4</c:f>
+              <c:f>Tabelle1!$O$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>31.538110451848471</c:v>
                 </c:pt>
@@ -1947,22 +2428,34 @@
                   <c:v>4.8109965635738829</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>27.950310559006212</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>30.021505376344088</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.5324427480916025</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14.415781487101668</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>33.285024154589372</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>6.3414634146341458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.339622641509436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,7 +2466,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$5</c:f>
+              <c:f>Tabelle1!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1984,9 +2477,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1995,16 +2488,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2012,18 +2505,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2032,10 +2537,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$5:$R$5</c:f>
+              <c:f>Tabelle1!$O$5:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2.5559105431309908</c:v>
                 </c:pt>
@@ -2043,7 +2548,7 @@
                   <c:v>2.6345933562428403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10.559006211180124</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2058,6 +2563,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2069,7 +2586,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$6</c:f>
+              <c:f>Tabelle1!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2080,9 +2597,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2091,16 +2608,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2108,18 +2625,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2128,10 +2657,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$6:$R$6</c:f>
+              <c:f>Tabelle1!$O$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.59333637608397993</c:v>
                 </c:pt>
@@ -2139,7 +2668,7 @@
                   <c:v>0.45819014891179838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.5900621118012417</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2154,6 +2683,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2165,7 +2706,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$7</c:f>
+              <c:f>Tabelle1!$N$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2176,9 +2717,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2187,16 +2728,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2204,18 +2745,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2224,10 +2777,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$7:$R$7</c:f>
+              <c:f>Tabelle1!$O$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.95846645367412153</c:v>
                 </c:pt>
@@ -2235,7 +2788,7 @@
                   <c:v>0.45819014891179838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2422360248447206</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2250,6 +2803,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2261,7 +2826,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$8</c:f>
+              <c:f>Tabelle1!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,9 +2837,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2283,16 +2848,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2300,18 +2865,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2320,10 +2897,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$8:$R$8</c:f>
+              <c:f>Tabelle1!$O$8:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>4.1533546325878596</c:v>
                 </c:pt>
@@ -2331,21 +2908,33 @@
                   <c:v>5.61282932416953</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>22.981366459627328</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3.3763440860215055</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.9618320610687023</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15.781487101669196</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2357,7 +2946,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$9</c:f>
+              <c:f>Tabelle1!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2368,9 +2957,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2379,16 +2968,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2396,18 +2985,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2416,10 +3017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$9:$R$9</c:f>
+              <c:f>Tabelle1!$O$9:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2427,21 +3028,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.0107526881720432</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3.4828244274809159</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2564491654021239</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2453,7 +3066,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$10</c:f>
+              <c:f>Tabelle1!$N$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2464,9 +3077,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2475,16 +3088,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2492,18 +3105,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2512,10 +3137,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$10:$R$10</c:f>
+              <c:f>Tabelle1!$O$10:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2523,21 +3148,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.64516129032258074</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1.1450381679389312</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4.248861911987861</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2549,7 +3186,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$11</c:f>
+              <c:f>Tabelle1!$N$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2560,9 +3197,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2571,16 +3208,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2588,18 +3225,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2608,10 +3257,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$11:$R$11</c:f>
+              <c:f>Tabelle1!$O$11:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2619,21 +3268,33 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.591397849462366</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>14.503816793893128</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>45.220030349013648</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2645,7 +3306,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$12</c:f>
+              <c:f>Tabelle1!$N$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2656,9 +3317,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2667,16 +3328,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2684,18 +3345,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2704,10 +3377,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$12:$R$12</c:f>
+              <c:f>Tabelle1!$O$12:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2721,15 +3394,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>62.921348314606753</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>88.709677419354833</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2741,7 +3426,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$13</c:f>
+              <c:f>Tabelle1!$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2752,9 +3437,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2763,16 +3448,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2780,18 +3465,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2800,10 +3497,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$13:$R$13</c:f>
+              <c:f>Tabelle1!$O$13:$Z$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2817,15 +3514,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>33.146067415730336</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>4.838709677419355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2837,7 +3546,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$14</c:f>
+              <c:f>Tabelle1!$N$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2848,9 +3557,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2859,16 +3568,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2876,18 +3585,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2896,10 +3617,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$14:$R$14</c:f>
+              <c:f>Tabelle1!$O$14:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2913,15 +3634,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>3.9325842696629221</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>7.8125</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>6.4516129032258069</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2933,7 +3666,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$15</c:f>
+              <c:f>Tabelle1!$N$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2944,9 +3677,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2955,16 +3688,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -2972,18 +3705,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2992,10 +3737,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$15:$R$15</c:f>
+              <c:f>Tabelle1!$O$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3015,10 +3760,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.48309178743961356</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.24390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,7 +3786,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$16</c:f>
+              <c:f>Tabelle1!$N$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3040,9 +3797,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3051,16 +3808,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -3068,18 +3825,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3088,10 +3857,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$16:$R$16</c:f>
+              <c:f>Tabelle1!$O$16:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3111,10 +3880,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.3526570048309181</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.24390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,7 +3906,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$17</c:f>
+              <c:f>Tabelle1!$N$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3136,9 +3917,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3147,16 +3928,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -3164,18 +3945,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3184,10 +3977,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$17:$R$17</c:f>
+              <c:f>Tabelle1!$O$17:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3207,10 +4000,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.48309178743961356</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>3.0487804878048776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.811320754716984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,7 +4026,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$18</c:f>
+              <c:f>Tabelle1!$N$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3232,9 +4037,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$K$1:$R$2</c:f>
+              <c:f>Tabelle1!$O$1:$Z$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3243,16 +4048,16 @@
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Unoptimized</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="6">
                     <c:v>Unoptimized</c:v>
@@ -3260,18 +4065,30 @@
                   <c:pt idx="7">
                     <c:v>NEON Autocompiler</c:v>
                   </c:pt>
+                  <c:pt idx="8">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NEON FFT Optimized</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="6">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3280,10 +4097,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$K$18:$R$18</c:f>
+              <c:f>Tabelle1!$O$18:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3303,10 +4120,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.14492753623188406</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.3658536585365853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94339622641509446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3314,29 +4143,29 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="50750976"/>
-        <c:axId val="50752896"/>
+        <c:axId val="48809472"/>
+        <c:axId val="48811008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="50750976"/>
+        <c:axId val="48809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50752896"/>
+        <c:crossAx val="48811008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50752896"/>
+        <c:axId val="48811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
-          <c:min val="50"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3366,7 +4195,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50750976"/>
+        <c:crossAx val="48809472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3379,7 +4208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3395,7 +4224,7 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3419,13 +4248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3735,10 +4564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3746,60 +4575,76 @@
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:26">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:26">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -3808,16 +4653,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -3825,7 +4670,9 @@
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3833,11 +4680,9 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3845,13 +4690,37 @@
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3862,60 +4731,88 @@
         <v>0.751</v>
       </c>
       <c r="D3" s="1">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E3" s="1">
         <v>2.6669999999999998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1.496</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.33</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
-        <f>B3*100/K19</f>
+      <c r="O3" s="1">
+        <f>B3*100/O19</f>
         <v>60.200821542674582</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:R3" si="0">C3*100/L19</f>
+      <c r="P3" s="1">
+        <f>C3*100/P19</f>
         <v>86.025200458190128</v>
       </c>
-      <c r="M3" s="1">
+      <c r="Q3" s="1">
+        <f>D3*100/Q19</f>
+        <v>31.677018633540371</v>
+      </c>
+      <c r="R3" s="1">
+        <f>E3*100/R19</f>
+        <v>57.354838709677423</v>
+      </c>
+      <c r="S3" s="1">
+        <f>F3*100/S19</f>
+        <v>71.374045801526705</v>
+      </c>
+      <c r="T3" s="1">
+        <f>G3*100/T19</f>
+        <v>11.077389984825492</v>
+      </c>
+      <c r="U3" s="1">
+        <f>H3*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f>I3*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f>J3*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f>K3*100/X19</f>
+        <v>64.251207729468604</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Z3" si="0">L3*100/Y19</f>
+        <v>89.75609756097559</v>
+      </c>
+      <c r="Z3" s="1">
         <f t="shared" si="0"/>
-        <v>57.354838709677423</v>
-      </c>
-      <c r="N3" s="1">
-        <f t="shared" si="0"/>
-        <v>71.374045801526705</v>
-      </c>
-      <c r="O3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <f t="shared" si="0"/>
-        <v>64.251207729468604</v>
-      </c>
-      <c r="R3" s="1">
-        <f t="shared" si="0"/>
-        <v>89.75609756097559</v>
+        <v>34.905660377358487</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3926,60 +4823,88 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D4" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>1.3959999999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>0.68899999999999995</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1">
-        <f>B4*100/K19</f>
+      <c r="O4" s="1">
+        <f>B4*100/O19</f>
         <v>31.538110451848471</v>
       </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:R4" si="1">C4*100/L19</f>
+      <c r="P4" s="1">
+        <f>C4*100/P19</f>
         <v>4.8109965635738829</v>
       </c>
-      <c r="M4" s="1">
+      <c r="Q4" s="1">
+        <f>D4*100/Q19</f>
+        <v>27.950310559006212</v>
+      </c>
+      <c r="R4" s="1">
+        <f>E4*100/R19</f>
+        <v>30.021505376344088</v>
+      </c>
+      <c r="S4" s="1">
+        <f>F4*100/S19</f>
+        <v>4.5324427480916025</v>
+      </c>
+      <c r="T4" s="1">
+        <f>G4*100/T19</f>
+        <v>14.415781487101668</v>
+      </c>
+      <c r="U4" s="1">
+        <f>H4*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f>I4*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f>J4*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f>K4*100/X19</f>
+        <v>33.285024154589372</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Z4" si="1">L4*100/Y19</f>
+        <v>6.3414634146341458</v>
+      </c>
+      <c r="Z4" s="1">
         <f t="shared" si="1"/>
-        <v>30.021505376344088</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5324427480916025</v>
-      </c>
-      <c r="O4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="1"/>
-        <v>33.285024154589372</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3414634146341458</v>
+        <v>44.339622641509436</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3990,7 +4915,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -4007,43 +4932,71 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="1">
-        <f>B5*100/K19</f>
+      <c r="O5" s="1">
+        <f>B5*100/O19</f>
         <v>2.5559105431309908</v>
       </c>
-      <c r="L5" s="1">
-        <f t="shared" ref="L5:R5" si="2">C5*100/L19</f>
+      <c r="P5" s="1">
+        <f>C5*100/P19</f>
         <v>2.6345933562428403</v>
       </c>
-      <c r="M5" s="1">
+      <c r="Q5" s="1">
+        <f>D5*100/Q19</f>
+        <v>10.559006211180124</v>
+      </c>
+      <c r="R5" s="1">
+        <f>E5*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <f>F5*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f>G5*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f>H5*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f>I5*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f>J5*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f>K5*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" ref="Y5:Z5" si="2">L5*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4054,7 +5007,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -4071,43 +5024,71 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1">
-        <f>B6*100/K19</f>
+      <c r="O6" s="1">
+        <f>B6*100/O19</f>
         <v>0.59333637608397993</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" ref="L6:R6" si="3">C6*100/L19</f>
+      <c r="P6" s="1">
+        <f>C6*100/P19</f>
         <v>0.45819014891179838</v>
       </c>
-      <c r="M6" s="1">
+      <c r="Q6" s="1">
+        <f>D6*100/Q19</f>
+        <v>5.5900621118012417</v>
+      </c>
+      <c r="R6" s="1">
+        <f>E6*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <f>F6*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>G6*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <f>H6*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <f>I6*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <f>J6*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <f>K6*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" ref="Y6:Z6" si="3">L6*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4118,7 +5099,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -4135,43 +5116,71 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1">
-        <f>B7*100/K19</f>
+      <c r="O7" s="1">
+        <f>B7*100/O19</f>
         <v>0.95846645367412153</v>
       </c>
-      <c r="L7" s="1">
-        <f t="shared" ref="L7:R7" si="4">C7*100/L19</f>
+      <c r="P7" s="1">
+        <f>C7*100/P19</f>
         <v>0.45819014891179838</v>
       </c>
-      <c r="M7" s="1">
+      <c r="Q7" s="1">
+        <f>D7*100/Q19</f>
+        <v>1.2422360248447206</v>
+      </c>
+      <c r="R7" s="1">
+        <f>E7*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f>F7*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f>G7*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <f>H7*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <f>I7*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <f>J7*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <f>K7*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" ref="Y7:Z7" si="4">L7*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4182,16 +5191,16 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="D8" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.157</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.104</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -4199,43 +5208,71 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1">
-        <f>B8*100/K19</f>
+      <c r="O8" s="1">
+        <f>B8*100/O19</f>
         <v>4.1533546325878596</v>
       </c>
-      <c r="L8" s="1">
-        <f t="shared" ref="L8:R8" si="5">C8*100/L19</f>
+      <c r="P8" s="1">
+        <f>C8*100/P19</f>
         <v>5.61282932416953</v>
       </c>
-      <c r="M8" s="1">
+      <c r="Q8" s="1">
+        <f>D8*100/Q19</f>
+        <v>22.981366459627328</v>
+      </c>
+      <c r="R8" s="1">
+        <f>E8*100/R19</f>
+        <v>3.3763440860215055</v>
+      </c>
+      <c r="S8" s="1">
+        <f>F8*100/S19</f>
+        <v>4.9618320610687023</v>
+      </c>
+      <c r="T8" s="1">
+        <f>G8*100/T19</f>
+        <v>15.781487101669196</v>
+      </c>
+      <c r="U8" s="1">
+        <f>H8*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <f>I8*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f>J8*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f>K8*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" ref="Y8:Z8" si="5">L8*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
         <f t="shared" si="5"/>
-        <v>3.3763440860215055</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="5"/>
-        <v>4.9618320610687023</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -4246,16 +5283,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -4263,43 +5300,71 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="1">
-        <f>B9*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" ref="L9:R9" si="6">C9*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
+        <f>B9*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f>C9*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>D9*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f>E9*100/R19</f>
+        <v>1.0107526881720432</v>
+      </c>
+      <c r="S9" s="1">
+        <f>F9*100/S19</f>
+        <v>3.4828244274809159</v>
+      </c>
+      <c r="T9" s="1">
+        <f>G9*100/T19</f>
+        <v>9.2564491654021239</v>
+      </c>
+      <c r="U9" s="1">
+        <f>H9*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f>I9*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>J9*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <f>K9*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" ref="Y9:Z9" si="6">L9*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
         <f t="shared" si="6"/>
-        <v>1.0107526881720432</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="6"/>
-        <v>3.4828244274809159</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -4310,16 +5375,16 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.03</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -4327,43 +5392,71 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1">
-        <f>B10*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" ref="L10:R10" si="7">C10*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
+        <f>B10*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>C10*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>D10*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f>E10*100/R19</f>
+        <v>0.64516129032258074</v>
+      </c>
+      <c r="S10" s="1">
+        <f>F10*100/S19</f>
+        <v>1.1450381679389312</v>
+      </c>
+      <c r="T10" s="1">
+        <f>G10*100/T19</f>
+        <v>4.248861911987861</v>
+      </c>
+      <c r="U10" s="1">
+        <f>H10*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <f>I10*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f>J10*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <f>K10*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" ref="Y10:Z10" si="7">L10*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
         <f t="shared" si="7"/>
-        <v>0.64516129032258074</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1450381679389312</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4374,16 +5467,16 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.35299999999999998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -4391,43 +5484,71 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="1">
-        <f>B11*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11:R11" si="8">C11*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
+        <f>B11*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f>C11*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>D11*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <f>E11*100/R19</f>
+        <v>7.591397849462366</v>
+      </c>
+      <c r="S11" s="1">
+        <f>F11*100/S19</f>
+        <v>14.503816793893128</v>
+      </c>
+      <c r="T11" s="1">
+        <f>G11*100/T19</f>
+        <v>45.220030349013648</v>
+      </c>
+      <c r="U11" s="1">
+        <f>H11*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f>I11*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f>J11*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <f>K11*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" ref="Y11:Z11" si="8">L11*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1">
         <f t="shared" si="8"/>
-        <v>7.591397849462366</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="8"/>
-        <v>14.503816793893128</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -4444,54 +5565,82 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.112</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="1">
-        <f>B12*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" ref="L12:R12" si="9">C12*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
+        <f>B12*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>C12*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>D12*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f>E12*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f>F12*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f>G12*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f>H12*100/U19</f>
+        <v>62.921348314606753</v>
+      </c>
+      <c r="V12" s="1">
+        <f>I12*100/V19</f>
+        <v>89.0625</v>
+      </c>
+      <c r="W12" s="1">
+        <f>J12*100/W19</f>
+        <v>88.709677419354833</v>
+      </c>
+      <c r="X12" s="1">
+        <f>K12*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" ref="Y12:Z12" si="9">L12*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="9"/>
-        <v>62.921348314606753</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="9"/>
-        <v>89.0625</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -4508,54 +5657,82 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1">
-        <f>B13*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13:R13" si="10">C13*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
+        <f>B13*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>C13*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>D13*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f>E13*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f>F13*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f>G13*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <f>H13*100/U19</f>
+        <v>33.146067415730336</v>
+      </c>
+      <c r="V13" s="1">
+        <f>I13*100/V19</f>
+        <v>3.125</v>
+      </c>
+      <c r="W13" s="1">
+        <f>J13*100/W19</f>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="X13" s="1">
+        <f>K13*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" ref="Y13:Z13" si="10">L13*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="10"/>
-        <v>33.146067415730336</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="10"/>
-        <v>3.125</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -4572,54 +5749,82 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="1">
-        <f>B14*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" ref="L14:R14" si="11">C14*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
+        <f>B14*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f>C14*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>D14*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f>E14*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f>F14*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f>G14*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f>H14*100/U19</f>
+        <v>3.9325842696629221</v>
+      </c>
+      <c r="V14" s="1">
+        <f>I14*100/V19</f>
+        <v>7.8125</v>
+      </c>
+      <c r="W14" s="1">
+        <f>J14*100/W19</f>
+        <v>6.4516129032258069</v>
+      </c>
+      <c r="X14" s="1">
+        <f>K14*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" ref="Y14:Z14" si="11">L14*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="11"/>
-        <v>3.9325842696629221</v>
-      </c>
-      <c r="P14" s="1">
-        <f>G14*100/P19</f>
-        <v>7.8125</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -4642,48 +5847,76 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>0.01</v>
       </c>
-      <c r="I15" s="1">
+      <c r="L15" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="1">
-        <f>B15*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" ref="L15:R15" si="12">C15*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
+        <f>B15*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <f>C15*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>D15*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <f>E15*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f>F15*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>G15*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <f>H15*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f>I15*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <f>J15*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <f>K15*100/X19</f>
+        <v>0.48309178743961356</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" ref="Y15:Z15" si="12">L15*100/Y19</f>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="Z15" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="12"/>
-        <v>0.48309178743961356</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="12"/>
-        <v>0.24390243902439024</v>
-      </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -4706,48 +5939,76 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="L16" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="1">
-        <f>B16*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" ref="L16:R16" si="13">C16*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
+        <f>B16*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <f>C16*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>D16*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <f>E16*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <f>F16*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <f>G16*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <f>H16*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <f>I16*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <f>J16*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <f>K16*100/X19</f>
+        <v>1.3526570048309181</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" ref="Y16:Z16" si="13">L16*100/Y19</f>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="Z16" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3526570048309181</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="13"/>
-        <v>0.24390243902439024</v>
-      </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -4770,48 +6031,76 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>0.01</v>
       </c>
-      <c r="I17" s="1">
+      <c r="L17" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="1">
-        <f>B17*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" ref="L17:R17" si="14">C17*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
+        <f>B17*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <f>C17*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>D17*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <f>E17*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f>F17*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <f>G17*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <f>H17*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <f>I17*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f>J17*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <f>K17*100/X19</f>
+        <v>0.48309178743961356</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" ref="Y17:Z17" si="14">L17*100/Y19</f>
+        <v>3.0487804878048776</v>
+      </c>
+      <c r="Z17" s="1">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <f t="shared" si="14"/>
-        <v>0.48309178743961356</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="14"/>
-        <v>3.0487804878048776</v>
+        <v>19.811320754716984</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4834,91 +6123,136 @@
         <v>0</v>
       </c>
       <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I18" s="1">
+      <c r="L18" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="M18" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="1">
-        <f>B18*100/K19</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" ref="L18:R18" si="15">C18*100/L19</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="O18" s="1">
+        <f>B18*100/O19</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f>C18*100/P19</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>D18*100/Q19</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <f>E18*100/R19</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <f>F18*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f>G18*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <f>H18*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <f>I18*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f>J18*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f>K18*100/X19</f>
+        <v>0.14492753623188406</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" ref="Y18:Z18" si="15">L18*100/Y19</f>
+        <v>0.3658536585365853</v>
+      </c>
+      <c r="Z18" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <f t="shared" si="15"/>
-        <v>0.14492753623188406</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="15"/>
-        <v>0.3658536585365853</v>
+        <v>0.94339622641509446</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="K19">
-        <f t="shared" ref="K19:R19" si="16">SUM(B3:B18)</f>
+    <row r="19" spans="1:26">
+      <c r="J19" s="7"/>
+      <c r="O19">
+        <f>SUM(B3:B18)</f>
         <v>2.1909999999999998</v>
       </c>
-      <c r="L19">
+      <c r="P19">
+        <f>SUM(C3:C18)</f>
+        <v>0.87300000000000011</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(D3:D18)</f>
+        <v>0.161</v>
+      </c>
+      <c r="R19">
+        <f>SUM(E3:E18)</f>
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="S19">
+        <f>SUM(F3:F18)</f>
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="T19">
+        <f>SUM(G3:G18)</f>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="U19">
+        <f>SUM(H3:H18)</f>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="V19">
+        <f>SUM(I3:I18)</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W19">
+        <f>SUM(J3:J18)</f>
+        <v>6.2E-2</v>
+      </c>
+      <c r="X19">
+        <f>SUM(K3:K18)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ref="Y19:Z19" si="16">SUM(L3:L18)</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="Z19">
         <f t="shared" si="16"/>
-        <v>0.87300000000000011</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="16"/>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="16"/>
-        <v>2.0960000000000001</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="16"/>
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="16"/>
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="16"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="16"/>
-        <v>0.82000000000000006</v>
+        <v>0.106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/ResultsExtraktion.xlsx
+++ b/Results/ResultsExtraktion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -86,6 +86,9 @@
   <si>
     <t>NEON FFT Optimized</t>
   </si>
+  <si>
+    <t>DSP</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,14 +182,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,7 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -236,9 +258,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -250,30 +272,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -281,13 +312,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -296,10 +327,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$M$3</c:f>
+              <c:f>Tabelle1!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.319</c:v>
                 </c:pt>
@@ -310,30 +341,39 @@
                   <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.2409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2.6669999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.496</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.4269999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.33</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.73599999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -356,9 +396,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -370,30 +410,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -401,13 +450,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -416,10 +465,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$4:$M$4</c:f>
+              <c:f>Tabelle1!$B$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.69099999999999995</c:v>
                 </c:pt>
@@ -430,30 +479,39 @@
                   <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5.3600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.3959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0709999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.68899999999999995</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>4.7E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -476,9 +534,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -490,30 +548,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -521,13 +588,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -536,10 +603,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$5:$M$5</c:f>
+              <c:f>Tabelle1!$B$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
@@ -550,7 +617,7 @@
                   <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -574,6 +641,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -596,9 +672,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -610,30 +686,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -641,13 +726,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -656,10 +741,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$6:$M$6</c:f>
+              <c:f>Tabelle1!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
@@ -670,7 +755,7 @@
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.7E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -694,6 +779,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -716,9 +810,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -730,30 +824,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -761,13 +864,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -776,10 +879,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$7:$M$7</c:f>
+              <c:f>Tabelle1!$B$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
@@ -790,7 +893,7 @@
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.4E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -814,6 +917,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -836,9 +948,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -850,30 +962,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -881,13 +1002,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -896,10 +1017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$8:$M$8</c:f>
+              <c:f>Tabelle1!$B$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
@@ -910,19 +1031,19 @@
                   <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.22E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.157</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.43E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -934,6 +1055,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -956,9 +1086,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -970,30 +1100,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1001,13 +1140,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1016,10 +1155,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$9:$M$9</c:f>
+              <c:f>Tabelle1!$B$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1030,19 +1169,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.7E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.4999999999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1054,6 +1193,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1076,9 +1224,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1090,30 +1238,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1121,13 +1278,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1136,10 +1293,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$10:$M$10</c:f>
+              <c:f>Tabelle1!$B$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1150,19 +1307,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.7999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1174,6 +1331,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1196,9 +1362,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1210,30 +1376,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1241,13 +1416,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1256,10 +1431,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$11:$M$11</c:f>
+              <c:f>Tabelle1!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,19 +1445,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.35299999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.30399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.29799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.5600000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1294,6 +1469,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1316,9 +1500,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1330,30 +1514,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1361,13 +1554,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1376,10 +1569,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$12:$M$12</c:f>
+              <c:f>Tabelle1!$B$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1399,21 +1592,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.112</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>5.5E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.5699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1436,9 +1638,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1450,30 +1652,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1481,13 +1692,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1496,10 +1707,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$13:$M$13</c:f>
+              <c:f>Tabelle1!$B$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1519,21 +1730,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.9139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1556,9 +1776,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1570,30 +1790,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1601,13 +1830,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1616,10 +1845,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$14:$M$14</c:f>
+              <c:f>Tabelle1!$B$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1639,21 +1868,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1676,9 +1914,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1690,30 +1928,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1721,13 +1968,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1736,10 +1983,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$15:$M$15</c:f>
+              <c:f>Tabelle1!$B$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1768,12 +2015,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1796,9 +2052,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1810,30 +2066,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1841,13 +2106,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1856,10 +2121,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$16:$M$16</c:f>
+              <c:f>Tabelle1!$B$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1888,12 +2153,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1916,9 +2190,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -1930,30 +2204,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1961,13 +2244,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1976,10 +2259,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$17:$M$17</c:f>
+              <c:f>Tabelle1!$B$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2008,12 +2291,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2036,9 +2328,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$B$1:$M$2</c:f>
+              <c:f>Tabelle1!$B$1:$P$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2050,30 +2342,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2081,13 +2382,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2096,10 +2397,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$18:$M$18</c:f>
+              <c:f>Tabelle1!$B$18:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2128,12 +2429,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2142,11 +2452,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="48704512"/>
-        <c:axId val="48723456"/>
+        <c:axId val="78351744"/>
+        <c:axId val="78439936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48704512"/>
+        <c:axId val="78351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,14 +2466,14 @@
         </c:title>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48723456"/>
+        <c:crossAx val="78439936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48723456"/>
+        <c:axId val="78439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2191,7 +2501,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48704512"/>
+        <c:crossAx val="78351744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,7 +2536,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$3</c:f>
+              <c:f>Tabelle1!$R$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2237,9 +2547,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2251,30 +2561,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2282,13 +2601,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2297,10 +2616,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$3:$Z$3</c:f>
+              <c:f>Tabelle1!$S$3:$AG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>60.200821542674582</c:v>
                 </c:pt>
@@ -2311,30 +2630,39 @@
                   <c:v>31.677018633540371</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>63.837448559670783</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>57.354838709677423</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>71.374045801526705</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>11.077389984825492</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>52.419006479481645</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>64.251207729468604</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>89.75609756097559</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>34.905660377358487</c:v>
                 </c:pt>
               </c:numCache>
@@ -2346,7 +2674,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$4</c:f>
+              <c:f>Tabelle1!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2357,9 +2685,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2371,30 +2699,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2402,13 +2739,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2417,10 +2754,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$4:$Z$4</c:f>
+              <c:f>Tabelle1!$S$4:$AG$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>31.538110451848471</c:v>
                 </c:pt>
@@ -2431,30 +2768,39 @@
                   <c:v>27.950310559006212</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>27.572016460905353</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30.021505376344088</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.5324427480916025</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>14.415781487101668</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>23.131749460043196</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>33.285024154589372</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>6.3414634146341458</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>44.339622641509436</c:v>
                 </c:pt>
               </c:numCache>
@@ -2466,7 +2812,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$5</c:f>
+              <c:f>Tabelle1!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2477,9 +2823,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2491,30 +2837,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2522,13 +2877,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2537,10 +2892,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$5:$Z$5</c:f>
+              <c:f>Tabelle1!$S$5:$AG$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>2.5559105431309908</c:v>
                 </c:pt>
@@ -2551,7 +2906,7 @@
                   <c:v>10.559006211180124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.72016460905349799</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2575,6 +2930,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2586,7 +2950,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$6</c:f>
+              <c:f>Tabelle1!$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2597,9 +2961,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2611,30 +2975,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2642,13 +3015,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2657,10 +3030,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$6:$Z$6</c:f>
+              <c:f>Tabelle1!$S$6:$AG$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.59333637608397993</c:v>
                 </c:pt>
@@ -2671,7 +3044,7 @@
                   <c:v>5.5900621118012417</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.874485596707819</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2695,6 +3068,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2706,7 +3088,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$7</c:f>
+              <c:f>Tabelle1!$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2717,9 +3099,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2731,30 +3113,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2762,13 +3153,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2777,10 +3168,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$7:$Z$7</c:f>
+              <c:f>Tabelle1!$S$7:$AG$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.95846645367412153</c:v>
                 </c:pt>
@@ -2791,7 +3182,7 @@
                   <c:v>1.2422360248447206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.72016460905349799</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2815,6 +3206,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2826,7 +3226,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$8</c:f>
+              <c:f>Tabelle1!$R$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2837,9 +3237,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2851,30 +3251,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2882,13 +3291,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2897,10 +3306,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$8:$Z$8</c:f>
+              <c:f>Tabelle1!$S$8:$AG$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4.1533546325878596</c:v>
                 </c:pt>
@@ -2911,19 +3320,19 @@
                   <c:v>22.981366459627328</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>6.2757201646090541</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3.3763440860215055</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>4.9618320610687023</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>15.781487101669196</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5.2483801295896333</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2935,6 +3344,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2946,7 +3364,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$9</c:f>
+              <c:f>Tabelle1!$R$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2957,9 +3375,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -2971,30 +3389,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3002,13 +3429,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3017,10 +3444,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$9:$Z$9</c:f>
+              <c:f>Tabelle1!$S$9:$AG$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3031,19 +3458,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.0107526881720432</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3.4828244274809159</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9.2564491654021239</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4038876889848813</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3055,6 +3482,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3066,7 +3502,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$10</c:f>
+              <c:f>Tabelle1!$R$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3077,9 +3513,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3091,30 +3527,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3122,13 +3567,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3137,10 +3582,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$10:$Z$10</c:f>
+              <c:f>Tabelle1!$S$10:$AG$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3151,19 +3596,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.64516129032258074</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.1450381679389312</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.248861911987861</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.468682505399568</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3175,6 +3620,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3186,7 +3640,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$11</c:f>
+              <c:f>Tabelle1!$R$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3197,9 +3651,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3211,30 +3665,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3242,13 +3705,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3257,10 +3720,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$11:$Z$11</c:f>
+              <c:f>Tabelle1!$S$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3271,19 +3734,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.591397849462366</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>14.503816793893128</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>45.220030349013648</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16.328293736501081</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3295,6 +3758,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3306,7 +3778,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$12</c:f>
+              <c:f>Tabelle1!$R$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3317,9 +3789,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3331,30 +3803,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3362,13 +3843,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3377,10 +3858,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$12:$Z$12</c:f>
+              <c:f>Tabelle1!$S$12:$AG$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3400,21 +3881,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>62.921348314606753</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>89.0625</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>88.709677419354833</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>7.5408261287223812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3426,7 +3916,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$13</c:f>
+              <c:f>Tabelle1!$R$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3437,9 +3927,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3451,30 +3941,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3482,13 +3981,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3497,10 +3996,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$13:$Z$13</c:f>
+              <c:f>Tabelle1!$S$13:$AG$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3520,21 +4019,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>33.146067415730336</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>3.125</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>4.838709677419355</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>91.930835734870314</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3546,7 +4054,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$14</c:f>
+              <c:f>Tabelle1!$R$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3557,9 +4065,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3571,30 +4079,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3602,13 +4119,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3617,10 +4134,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$14:$Z$14</c:f>
+              <c:f>Tabelle1!$S$14:$AG$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3640,21 +4157,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3.9325842696629221</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>7.8125</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>6.4516129032258069</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.52833813640730065</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3666,7 +4192,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$15</c:f>
+              <c:f>Tabelle1!$R$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3677,9 +4203,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3691,30 +4217,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3722,13 +4257,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3737,10 +4272,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$15:$Z$15</c:f>
+              <c:f>Tabelle1!$S$15:$AG$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3769,12 +4304,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.48309178743961356</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.24390243902439024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3786,7 +4330,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$16</c:f>
+              <c:f>Tabelle1!$R$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3797,9 +4341,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3811,30 +4355,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3842,13 +4395,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3857,10 +4410,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$16:$Z$16</c:f>
+              <c:f>Tabelle1!$S$16:$AG$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3889,12 +4442,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1.3526570048309181</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.24390243902439024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3906,7 +4468,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$17</c:f>
+              <c:f>Tabelle1!$R$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3917,9 +4479,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -3931,30 +4493,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3962,13 +4533,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -3977,10 +4548,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$17:$Z$17</c:f>
+              <c:f>Tabelle1!$S$17:$AG$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4009,12 +4580,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.48309178743961356</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>3.0487804878048776</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>19.811320754716984</c:v>
                 </c:pt>
               </c:numCache>
@@ -4026,7 +4606,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$N$18</c:f>
+              <c:f>Tabelle1!$R$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4037,9 +4617,9 @@
           </c:tx>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Tabelle1!$O$1:$Z$2</c:f>
+              <c:f>Tabelle1!$S$1:$AG$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Unoptimized</c:v>
@@ -4051,30 +4631,39 @@
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>DSP</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>NEON FFT Optimized</c:v>
+                    <c:v>Unoptimized</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Unoptimized</c:v>
+                    <c:v>NEON Autocompiler</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>NEON Autocompiler</c:v>
+                    <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>DSP</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Unoptimized</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NEON Autocompiler</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>NEON FFT Optimized</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4082,13 +4671,13 @@
                   <c:pt idx="0">
                     <c:v>FeatureSet 1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>FeatureSet 2</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>FeatureSet 3</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="12">
                     <c:v>FeatureSet 4</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4097,10 +4686,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$O$18:$Z$18</c:f>
+              <c:f>Tabelle1!$S$18:$AG$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4129,12 +4718,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.14492753623188406</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>0.3658536585365853</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>0.94339622641509446</c:v>
                 </c:pt>
               </c:numCache>
@@ -4143,25 +4741,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="48809472"/>
-        <c:axId val="48811008"/>
+        <c:axId val="78767616"/>
+        <c:axId val="78769152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48809472"/>
+        <c:axId val="78767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48811008"/>
+        <c:crossAx val="78769152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48811008"/>
+        <c:axId val="78769152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4195,7 +4793,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48809472"/>
+        <c:crossAx val="78767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4208,7 +4806,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4224,7 +4822,7 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4248,13 +4846,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -4564,10 +5162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4576,75 +5174,90 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:34">
       <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:34">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -4656,71 +5269,95 @@
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AG2" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="AH2" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4734,85 +5371,113 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="E3" s="1">
+        <v>1.2409999999999999E-3</v>
+      </c>
+      <c r="F3" s="1">
         <v>2.6669999999999998</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.496</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>2.4269999999999999E-3</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>1.33</v>
       </c>
-      <c r="L3" s="1">
+      <c r="O3" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1">
+        <v>1.237E-3</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="1">
-        <f>B3*100/O19</f>
+      <c r="S3" s="1">
+        <f>B3*100/S19</f>
         <v>60.200821542674582</v>
       </c>
-      <c r="P3" s="1">
-        <f>C3*100/P19</f>
+      <c r="T3" s="1">
+        <f>C3*100/T19</f>
         <v>86.025200458190128</v>
       </c>
-      <c r="Q3" s="1">
-        <f>D3*100/Q19</f>
+      <c r="U3" s="1">
+        <f>D3*100/U19</f>
         <v>31.677018633540371</v>
       </c>
-      <c r="R3" s="1">
-        <f>E3*100/R19</f>
+      <c r="V3" s="1">
+        <f>E3*100/V19</f>
+        <v>63.837448559670783</v>
+      </c>
+      <c r="W3" s="1">
+        <f>F3*100/W19</f>
         <v>57.354838709677423</v>
       </c>
-      <c r="S3" s="1">
-        <f>F3*100/S19</f>
+      <c r="X3" s="1">
+        <f>G3*100/X19</f>
         <v>71.374045801526705</v>
       </c>
-      <c r="T3" s="1">
-        <f>G3*100/T19</f>
+      <c r="Y3" s="1">
+        <f>H3*100/Y19</f>
         <v>11.077389984825492</v>
       </c>
-      <c r="U3" s="1">
-        <f>H3*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <f>I3*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <f>J3*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <f>K3*100/X19</f>
+      <c r="Z3" s="1">
+        <f>I3*100/Z19</f>
+        <v>52.419006479481645</v>
+      </c>
+      <c r="AA3" s="1">
+        <f>J3*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <f>K3*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f>L3*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>M3*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" ref="AE3" si="0">N3*100/AE19</f>
         <v>64.251207729468604</v>
       </c>
-      <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Z3" si="0">L3*100/Y19</f>
+      <c r="AF3" s="1">
+        <f>O3*100/AF19</f>
         <v>89.75609756097559</v>
       </c>
-      <c r="Z3" s="1">
-        <f t="shared" si="0"/>
+      <c r="AG3" s="1">
+        <f>P3*100/AG19</f>
         <v>34.905660377358487</v>
       </c>
+      <c r="AH3" s="1">
+        <f>Q3*100/AH19</f>
+        <v>66.901027582477013</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -4826,85 +5491,113 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E4" s="1">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="F4" s="1">
         <v>1.3959999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G4" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1.0709999999999999E-3</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
       <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>0.68899999999999995</v>
       </c>
-      <c r="L4" s="1">
+      <c r="O4" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="Q4" s="1">
+        <v>5.3600000000000002E-4</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="1">
-        <f>B4*100/O19</f>
+      <c r="S4" s="1">
+        <f>B4*100/S19</f>
         <v>31.538110451848471</v>
       </c>
-      <c r="P4" s="1">
-        <f>C4*100/P19</f>
+      <c r="T4" s="1">
+        <f>C4*100/T19</f>
         <v>4.8109965635738829</v>
       </c>
-      <c r="Q4" s="1">
-        <f>D4*100/Q19</f>
+      <c r="U4" s="1">
+        <f>D4*100/U19</f>
         <v>27.950310559006212</v>
       </c>
-      <c r="R4" s="1">
-        <f>E4*100/R19</f>
+      <c r="V4" s="1">
+        <f>E4*100/V19</f>
+        <v>27.572016460905353</v>
+      </c>
+      <c r="W4" s="1">
+        <f>F4*100/W19</f>
         <v>30.021505376344088</v>
       </c>
-      <c r="S4" s="1">
-        <f>F4*100/S19</f>
+      <c r="X4" s="1">
+        <f>G4*100/X19</f>
         <v>4.5324427480916025</v>
       </c>
-      <c r="T4" s="1">
-        <f>G4*100/T19</f>
+      <c r="Y4" s="1">
+        <f>H4*100/Y19</f>
         <v>14.415781487101668</v>
       </c>
-      <c r="U4" s="1">
-        <f>H4*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <f>I4*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <f>J4*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <f>K4*100/X19</f>
+      <c r="Z4" s="1">
+        <f>I4*100/Z19</f>
+        <v>23.131749460043196</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>J4*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <f>K4*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>L4*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>M4*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" ref="AE4" si="1">N4*100/AE19</f>
         <v>33.285024154589372</v>
       </c>
-      <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Z4" si="1">L4*100/Y19</f>
+      <c r="AF4" s="1">
+        <f>O4*100/AF19</f>
         <v>6.3414634146341458</v>
       </c>
-      <c r="Z4" s="1">
-        <f t="shared" si="1"/>
+      <c r="AG4" s="1">
+        <f>P4*100/AG19</f>
         <v>44.339622641509436</v>
       </c>
+      <c r="AH4" s="1">
+        <f>Q4*100/AH19</f>
+        <v>28.988642509464576</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4918,7 +5611,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>1.4E-5</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -4944,59 +5637,87 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="1">
-        <f>B5*100/O19</f>
+      <c r="S5" s="1">
+        <f>B5*100/S19</f>
         <v>2.5559105431309908</v>
       </c>
-      <c r="P5" s="1">
-        <f>C5*100/P19</f>
+      <c r="T5" s="1">
+        <f>C5*100/T19</f>
         <v>2.6345933562428403</v>
       </c>
-      <c r="Q5" s="1">
-        <f>D5*100/Q19</f>
+      <c r="U5" s="1">
+        <f>D5*100/U19</f>
         <v>10.559006211180124</v>
       </c>
-      <c r="R5" s="1">
-        <f>E5*100/R19</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <f>F5*100/S19</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <f>G5*100/T19</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <f>H5*100/U19</f>
-        <v>0</v>
-      </c>
       <c r="V5" s="1">
-        <f>I5*100/V19</f>
-        <v>0</v>
+        <f>E5*100/V19</f>
+        <v>0.72016460905349799</v>
       </c>
       <c r="W5" s="1">
-        <f>J5*100/W19</f>
+        <f>F5*100/W19</f>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f>K5*100/X19</f>
+        <f>G5*100/X19</f>
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f t="shared" ref="Y5:Z5" si="2">L5*100/Y19</f>
+        <f>H5*100/Y19</f>
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="2"/>
+        <f>I5*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <f>J5*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <f>K5*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>L5*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>M5*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" ref="AE5" si="2">N5*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <f>O5*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>P5*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <f>Q5*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5010,7 +5731,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1.7E-5</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5036,59 +5757,87 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="1">
-        <f>B6*100/O19</f>
+      <c r="S6" s="1">
+        <f>B6*100/S19</f>
         <v>0.59333637608397993</v>
       </c>
-      <c r="P6" s="1">
-        <f>C6*100/P19</f>
+      <c r="T6" s="1">
+        <f>C6*100/T19</f>
         <v>0.45819014891179838</v>
       </c>
-      <c r="Q6" s="1">
-        <f>D6*100/Q19</f>
+      <c r="U6" s="1">
+        <f>D6*100/U19</f>
         <v>5.5900621118012417</v>
       </c>
-      <c r="R6" s="1">
-        <f>E6*100/R19</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <f>F6*100/S19</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <f>G6*100/T19</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <f>H6*100/U19</f>
-        <v>0</v>
-      </c>
       <c r="V6" s="1">
-        <f>I6*100/V19</f>
-        <v>0</v>
+        <f>E6*100/V19</f>
+        <v>0.874485596707819</v>
       </c>
       <c r="W6" s="1">
-        <f>J6*100/W19</f>
+        <f>F6*100/W19</f>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f>K6*100/X19</f>
+        <f>G6*100/X19</f>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" ref="Y6:Z6" si="3">L6*100/Y19</f>
+        <f>H6*100/Y19</f>
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="3"/>
+        <f>I6*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f>J6*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f>K6*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <f>L6*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <f>M6*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" ref="AE6" si="3">N6*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <f>O6*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>P6*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <f>Q6*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -5102,7 +5851,7 @@
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1.4E-5</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -5128,59 +5877,87 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="1">
-        <f>B7*100/O19</f>
+      <c r="S7" s="1">
+        <f>B7*100/S19</f>
         <v>0.95846645367412153</v>
       </c>
-      <c r="P7" s="1">
-        <f>C7*100/P19</f>
+      <c r="T7" s="1">
+        <f>C7*100/T19</f>
         <v>0.45819014891179838</v>
       </c>
-      <c r="Q7" s="1">
-        <f>D7*100/Q19</f>
+      <c r="U7" s="1">
+        <f>D7*100/U19</f>
         <v>1.2422360248447206</v>
       </c>
-      <c r="R7" s="1">
-        <f>E7*100/R19</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <f>F7*100/S19</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <f>G7*100/T19</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <f>H7*100/U19</f>
-        <v>0</v>
-      </c>
       <c r="V7" s="1">
-        <f>I7*100/V19</f>
-        <v>0</v>
+        <f>E7*100/V19</f>
+        <v>0.72016460905349799</v>
       </c>
       <c r="W7" s="1">
-        <f>J7*100/W19</f>
+        <f>F7*100/W19</f>
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <f>K7*100/X19</f>
+        <f>G7*100/X19</f>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f t="shared" ref="Y7:Z7" si="4">L7*100/Y19</f>
+        <f>H7*100/Y19</f>
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="4"/>
+        <f>I7*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <f>J7*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <f>K7*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <f>L7*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <f>M7*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <f t="shared" ref="AE7" si="4">N7*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>O7*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <f>P7*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>Q7*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -5194,19 +5971,19 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="E8" s="1">
+        <v>1.22E-4</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.157</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.104</v>
       </c>
       <c r="G8" s="1">
         <v>0.104</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>2.43E-4</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -5220,59 +5997,87 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="1">
-        <f>B8*100/O19</f>
+      <c r="S8" s="1">
+        <f>B8*100/S19</f>
         <v>4.1533546325878596</v>
       </c>
-      <c r="P8" s="1">
-        <f>C8*100/P19</f>
+      <c r="T8" s="1">
+        <f>C8*100/T19</f>
         <v>5.61282932416953</v>
       </c>
-      <c r="Q8" s="1">
-        <f>D8*100/Q19</f>
+      <c r="U8" s="1">
+        <f>D8*100/U19</f>
         <v>22.981366459627328</v>
       </c>
-      <c r="R8" s="1">
-        <f>E8*100/R19</f>
+      <c r="V8" s="1">
+        <f>E8*100/V19</f>
+        <v>6.2757201646090541</v>
+      </c>
+      <c r="W8" s="1">
+        <f>F8*100/W19</f>
         <v>3.3763440860215055</v>
       </c>
-      <c r="S8" s="1">
-        <f>F8*100/S19</f>
+      <c r="X8" s="1">
+        <f>G8*100/X19</f>
         <v>4.9618320610687023</v>
       </c>
-      <c r="T8" s="1">
-        <f>G8*100/T19</f>
+      <c r="Y8" s="1">
+        <f>H8*100/Y19</f>
         <v>15.781487101669196</v>
       </c>
-      <c r="U8" s="1">
-        <f>H8*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <f>I8*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <f>J8*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <f>K8*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <f t="shared" ref="Y8:Z8" si="5">L8*100/Y19</f>
-        <v>0</v>
-      </c>
       <c r="Z8" s="1">
-        <f t="shared" si="5"/>
+        <f>I8*100/Z19</f>
+        <v>5.2483801295896333</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>J8*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>K8*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>L8*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>M8*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" ref="AE8" si="5">N8*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
+        <f>O8*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <f>P8*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <f>Q8*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -5286,19 +6091,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5312,59 +6117,87 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="1">
-        <f>B9*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <f>C9*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>D9*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <f>E9*100/R19</f>
+      <c r="S9" s="1">
+        <f>B9*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>C9*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f>D9*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f>E9*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f>F9*100/W19</f>
         <v>1.0107526881720432</v>
       </c>
-      <c r="S9" s="1">
-        <f>F9*100/S19</f>
+      <c r="X9" s="1">
+        <f>G9*100/X19</f>
         <v>3.4828244274809159</v>
       </c>
-      <c r="T9" s="1">
-        <f>G9*100/T19</f>
+      <c r="Y9" s="1">
+        <f>H9*100/Y19</f>
         <v>9.2564491654021239</v>
       </c>
-      <c r="U9" s="1">
-        <f>H9*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <f>I9*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <f>J9*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <f>K9*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <f t="shared" ref="Y9:Z9" si="6">L9*100/Y19</f>
-        <v>0</v>
-      </c>
       <c r="Z9" s="1">
-        <f t="shared" si="6"/>
+        <f>I9*100/Z19</f>
+        <v>1.4038876889848813</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>J9*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>K9*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <f>L9*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>M9*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" ref="AE9" si="6">N9*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>O9*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <f>P9*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <f>Q9*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -5378,19 +6211,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>0.03</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5404,59 +6237,87 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="1">
-        <f>B10*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <f>C10*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>D10*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <f>E10*100/R19</f>
+      <c r="S10" s="1">
+        <f>B10*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>C10*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <f>D10*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <f>E10*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f>F10*100/W19</f>
         <v>0.64516129032258074</v>
       </c>
-      <c r="S10" s="1">
-        <f>F10*100/S19</f>
+      <c r="X10" s="1">
+        <f>G10*100/X19</f>
         <v>1.1450381679389312</v>
       </c>
-      <c r="T10" s="1">
-        <f>G10*100/T19</f>
+      <c r="Y10" s="1">
+        <f>H10*100/Y19</f>
         <v>4.248861911987861</v>
       </c>
-      <c r="U10" s="1">
-        <f>H10*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <f>I10*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <f>J10*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <f>K10*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" ref="Y10:Z10" si="7">L10*100/Y19</f>
-        <v>0</v>
-      </c>
       <c r="Z10" s="1">
-        <f t="shared" si="7"/>
+        <f>I10*100/Z19</f>
+        <v>1.468682505399568</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>J10*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>K10*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <f>L10*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>M10*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" ref="AE10" si="7">N10*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>O10*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <f>P10*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <f>Q10*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -5470,19 +6331,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.35299999999999998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>7.5600000000000005E-4</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5496,59 +6357,87 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="1">
-        <f>B11*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <f>C11*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>D11*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <f>E11*100/R19</f>
+      <c r="S11" s="1">
+        <f>B11*100/S19</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f>C11*100/T19</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <f>D11*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f>E11*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f>F11*100/W19</f>
         <v>7.591397849462366</v>
       </c>
-      <c r="S11" s="1">
-        <f>F11*100/S19</f>
+      <c r="X11" s="1">
+        <f>G11*100/X19</f>
         <v>14.503816793893128</v>
       </c>
-      <c r="T11" s="1">
-        <f>G11*100/T19</f>
+      <c r="Y11" s="1">
+        <f>H11*100/Y19</f>
         <v>45.220030349013648</v>
       </c>
-      <c r="U11" s="1">
-        <f>H11*100/U19</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <f>I11*100/V19</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <f>J11*100/W19</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <f>K11*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <f t="shared" ref="Y11:Z11" si="8">L11*100/Y19</f>
-        <v>0</v>
-      </c>
       <c r="Z11" s="1">
-        <f t="shared" si="8"/>
+        <f>I11*100/Z19</f>
+        <v>16.328293736501081</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>J11*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>K11*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>L11*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>M11*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" ref="AE11" si="8">N11*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>O11*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>P11*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1">
+        <f>Q11*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -5571,76 +6460,104 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.112</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
       <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1" t="s">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="1">
-        <f>B12*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <f>C12*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>D12*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <f>E12*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S12" s="1">
-        <f>F12*100/S19</f>
+        <f>B12*100/S19</f>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f>G12*100/T19</f>
+        <f>C12*100/T19</f>
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f>H12*100/U19</f>
+        <f>D12*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <f>E12*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f>F12*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f>G12*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>H12*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <f>I12*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>J12*100/AA19</f>
         <v>62.921348314606753</v>
       </c>
-      <c r="V12" s="1">
-        <f>I12*100/V19</f>
+      <c r="AB12" s="1">
+        <f>K12*100/AB19</f>
         <v>89.0625</v>
       </c>
-      <c r="W12" s="1">
-        <f>J12*100/W19</f>
+      <c r="AC12" s="1">
+        <f>L12*100/AC19</f>
         <v>88.709677419354833</v>
       </c>
-      <c r="X12" s="1">
-        <f>K12*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="1">
-        <f t="shared" ref="Y12:Z12" si="9">L12*100/Y19</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
-        <f t="shared" si="9"/>
+      <c r="AD12" s="1">
+        <f>M12*100/AD19</f>
+        <v>7.5408261287223812</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" ref="AE12" si="9">N12*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <f>O12*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>P12*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <f>Q12*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -5663,76 +6580,104 @@
         <v>0</v>
       </c>
       <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>2E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
       <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1" t="s">
+        <v>1.9139999999999999E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="1">
-        <f>B13*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <f>C13*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>D13*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <f>E13*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S13" s="1">
-        <f>F13*100/S19</f>
+        <f>B13*100/S19</f>
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <f>G13*100/T19</f>
+        <f>C13*100/T19</f>
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <f>H13*100/U19</f>
+        <f>D13*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <f>E13*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <f>F13*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f>G13*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>H13*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <f>I13*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>J13*100/AA19</f>
         <v>33.146067415730336</v>
       </c>
-      <c r="V13" s="1">
-        <f>I13*100/V19</f>
+      <c r="AB13" s="1">
+        <f>K13*100/AB19</f>
         <v>3.125</v>
       </c>
-      <c r="W13" s="1">
-        <f>J13*100/W19</f>
+      <c r="AC13" s="1">
+        <f>L13*100/AC19</f>
         <v>4.838709677419355</v>
       </c>
-      <c r="X13" s="1">
-        <f>K13*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="1">
-        <f t="shared" ref="Y13:Z13" si="10">L13*100/Y19</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <f t="shared" si="10"/>
+      <c r="AD13" s="1">
+        <f>M13*100/AD19</f>
+        <v>91.930835734870314</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" ref="AE13" si="10">N13*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>O13*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>P13*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f>Q13*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -5755,76 +6700,104 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
       <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1" t="s">
+        <v>1.1E-5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="1">
-        <f>B14*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <f>C14*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>D14*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <f>E14*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S14" s="1">
-        <f>F14*100/S19</f>
+        <f>B14*100/S19</f>
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f>G14*100/T19</f>
+        <f>C14*100/T19</f>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f>H14*100/U19</f>
+        <f>D14*100/U19</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <f>E14*100/V19</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <f>F14*100/W19</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <f>G14*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>H14*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <f>I14*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <f>J14*100/AA19</f>
         <v>3.9325842696629221</v>
       </c>
-      <c r="V14" s="1">
-        <f>I14*100/V19</f>
+      <c r="AB14" s="1">
+        <f>K14*100/AB19</f>
         <v>7.8125</v>
       </c>
-      <c r="W14" s="1">
-        <f>J14*100/W19</f>
+      <c r="AC14" s="1">
+        <f>L14*100/AC19</f>
         <v>6.4516129032258069</v>
       </c>
-      <c r="X14" s="1">
-        <f>K14*100/X19</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <f t="shared" ref="Y14:Z14" si="11">L14*100/Y19</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <f t="shared" si="11"/>
+      <c r="AD14" s="1">
+        <f>M14*100/AD19</f>
+        <v>0.52833813640730065</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" ref="AE14" si="11">N14*100/AE19</f>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>O14*100/AF19</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>P14*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f>Q14*100/AH19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -5856,67 +6829,95 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>0.01</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O15" s="1">
         <v>2E-3</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.1E-5</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="1">
-        <f>B15*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <f>C15*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>D15*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <f>E15*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S15" s="1">
-        <f>F15*100/S19</f>
+        <f>B15*100/S19</f>
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f>G15*100/T19</f>
+        <f>C15*100/T19</f>
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <f>H15*100/U19</f>
+        <f>D15*100/U19</f>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>I15*100/V19</f>
+        <f>E15*100/V19</f>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f>J15*100/W19</f>
+        <f>F15*100/W19</f>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f>K15*100/X19</f>
+        <f>G15*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <f>H15*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <f>I15*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <f>J15*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <f>K15*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <f>L15*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>M15*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" ref="AE15" si="12">N15*100/AE19</f>
         <v>0.48309178743961356</v>
       </c>
-      <c r="Y15" s="1">
-        <f t="shared" ref="Y15:Z15" si="12">L15*100/Y19</f>
+      <c r="AF15" s="1">
+        <f>O15*100/AF19</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="Z15" s="1">
-        <f t="shared" si="12"/>
-        <v>0</v>
+      <c r="AG15" s="1">
+        <f>P15*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <f>Q15*100/AH19</f>
+        <v>0.59491617090319093</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -5948,67 +6949,95 @@
         <v>0</v>
       </c>
       <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O16" s="1">
         <v>2E-3</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="1">
-        <f>B16*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <f>C16*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>D16*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <f>E16*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S16" s="1">
-        <f>F16*100/S19</f>
+        <f>B16*100/S19</f>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f>G16*100/T19</f>
+        <f>C16*100/T19</f>
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <f>H16*100/U19</f>
+        <f>D16*100/U19</f>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>I16*100/V19</f>
+        <f>E16*100/V19</f>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f>J16*100/W19</f>
+        <f>F16*100/W19</f>
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <f>K16*100/X19</f>
+        <f>G16*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>H16*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <f>I16*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <f>J16*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <f>K16*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <f>L16*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>M16*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" ref="AE16" si="13">N16*100/AE19</f>
         <v>1.3526570048309181</v>
       </c>
-      <c r="Y16" s="1">
-        <f t="shared" ref="Y16:Z16" si="13">L16*100/Y19</f>
+      <c r="AF16" s="1">
+        <f>O16*100/AF19</f>
         <v>0.24390243902439024</v>
       </c>
-      <c r="Z16" s="1">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="AG16" s="1">
+        <f>P16*100/AG19</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <f>Q16*100/AH19</f>
+        <v>1.0816657652785291</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -6040,67 +7069,95 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>0.01</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O17" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M17" s="1">
+      <c r="P17" s="1">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="Q17" s="1">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="1">
-        <f>B17*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f>C17*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>D17*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <f>E17*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S17" s="1">
-        <f>F17*100/S19</f>
+        <f>B17*100/S19</f>
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f>G17*100/T19</f>
+        <f>C17*100/T19</f>
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <f>H17*100/U19</f>
+        <f>D17*100/U19</f>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>I17*100/V19</f>
+        <f>E17*100/V19</f>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f>J17*100/W19</f>
+        <f>F17*100/W19</f>
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <f>K17*100/X19</f>
+        <f>G17*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <f>H17*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <f>I17*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <f>J17*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <f>K17*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <f>L17*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <f>M17*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" ref="AE17" si="14">N17*100/AE19</f>
         <v>0.48309178743961356</v>
       </c>
-      <c r="Y17" s="1">
-        <f t="shared" ref="Y17:Z17" si="14">L17*100/Y19</f>
+      <c r="AF17" s="1">
+        <f>O17*100/AF19</f>
         <v>3.0487804878048776</v>
       </c>
-      <c r="Z17" s="1">
-        <f t="shared" si="14"/>
+      <c r="AG17" s="1">
+        <f>P17*100/AG19</f>
         <v>19.811320754716984</v>
       </c>
+      <c r="AH17" s="1">
+        <f>Q17*100/AH19</f>
+        <v>2.0010816657652786</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6132,127 +7189,172 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L18" s="1">
+      <c r="O18" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="P18" s="1">
         <v>1E-3</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="Q18" s="1">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="1">
-        <f>B18*100/O19</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <f>C18*100/P19</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>D18*100/Q19</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <f>E18*100/R19</f>
-        <v>0</v>
-      </c>
       <c r="S18" s="1">
-        <f>F18*100/S19</f>
+        <f>B18*100/S19</f>
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f>G18*100/T19</f>
+        <f>C18*100/T19</f>
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f>H18*100/U19</f>
+        <f>D18*100/U19</f>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f>I18*100/V19</f>
+        <f>E18*100/V19</f>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f>J18*100/W19</f>
+        <f>F18*100/W19</f>
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <f>K18*100/X19</f>
+        <f>G18*100/X19</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <f>H18*100/Y19</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <f>I18*100/Z19</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <f>J18*100/AA19</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f>K18*100/AB19</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <f>L18*100/AC19</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <f>M18*100/AD19</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" ref="AE18" si="15">N18*100/AE19</f>
         <v>0.14492753623188406</v>
       </c>
-      <c r="Y18" s="1">
-        <f t="shared" ref="Y18:Z18" si="15">L18*100/Y19</f>
+      <c r="AF18" s="1">
+        <f>O18*100/AF19</f>
         <v>0.3658536585365853</v>
       </c>
-      <c r="Z18" s="1">
-        <f t="shared" si="15"/>
+      <c r="AG18" s="1">
+        <f>P18*100/AG19</f>
         <v>0.94339622641509446</v>
       </c>
+      <c r="AH18" s="1">
+        <f>Q18*100/AH19</f>
+        <v>0.43266630611141155</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
-      <c r="J19" s="7"/>
-      <c r="O19">
+    <row r="19" spans="1:34">
+      <c r="L19" s="4"/>
+      <c r="M19" s="9"/>
+      <c r="S19">
         <f>SUM(B3:B18)</f>
         <v>2.1909999999999998</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <f>SUM(C3:C18)</f>
         <v>0.87300000000000011</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <f>SUM(D3:D18)</f>
         <v>0.161</v>
       </c>
-      <c r="R19">
+      <c r="V19">
         <f>SUM(E3:E18)</f>
+        <v>1.9439999999999998E-3</v>
+      </c>
+      <c r="W19">
+        <f>SUM(F3:F18)</f>
         <v>4.6499999999999995</v>
       </c>
-      <c r="S19">
-        <f>SUM(F3:F18)</f>
+      <c r="X19">
+        <f>SUM(G3:G18)</f>
         <v>2.0960000000000001</v>
       </c>
-      <c r="T19">
-        <f>SUM(G3:G18)</f>
+      <c r="Y19">
+        <f>SUM(H3:H18)</f>
         <v>0.65900000000000003</v>
       </c>
-      <c r="U19">
-        <f>SUM(H3:H18)</f>
+      <c r="Z19">
+        <f>SUM(I3:I18)</f>
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="AA19">
+        <f>SUM(J3:J18)</f>
         <v>0.17799999999999999</v>
       </c>
-      <c r="V19">
-        <f>SUM(I3:I18)</f>
+      <c r="AB19">
+        <f>SUM(K3:K18)</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="W19">
-        <f>SUM(J3:J18)</f>
+      <c r="AC19">
+        <f>SUM(L3:L18)</f>
         <v>6.2E-2</v>
       </c>
-      <c r="X19">
-        <f>SUM(K3:K18)</f>
+      <c r="AD19">
+        <f>SUM(M3:M18)</f>
+        <v>2.0820000000000001E-3</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" ref="AE19" si="16">SUM(N3:N18)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="Y19">
-        <f t="shared" ref="Y19:Z19" si="16">SUM(L3:L18)</f>
+      <c r="AF19">
+        <f t="shared" ref="AF19:AH19" si="17">SUM(O3:O18)</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="Z19">
-        <f t="shared" si="16"/>
+      <c r="AG19">
+        <f t="shared" si="17"/>
         <v>0.106</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="17"/>
+        <v>1.8489999999999999E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/ResultsExtraktion.xlsx
+++ b/Results/ResultsExtraktion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="33">
   <si>
     <t>Unoptimized</t>
   </si>
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -333,6 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4546,11 +4549,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="115226880"/>
-        <c:axId val="115240960"/>
+        <c:axId val="44503424"/>
+        <c:axId val="44504960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115226880"/>
+        <c:axId val="44503424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,14 +4561,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115240960"/>
+        <c:crossAx val="44504960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115240960"/>
+        <c:axId val="44504960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.8"/>
@@ -4594,7 +4597,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115226880"/>
+        <c:crossAx val="44503424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4629,18 +4632,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet4!$A$2</c:f>
+              <c:f>FeatureSet3!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FFT</c:v>
+                  <c:v>ZeroCrossingRate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
+              <c:f>FeatureSet3!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4669,30 +4672,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet4!$B$2:$H$2</c:f>
+              <c:f>FeatureSet3!$J$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.3</c:v>
+                  <c:v>62.921348314606746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.36</c:v>
+                  <c:v>89.062499999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34700000000000003</c:v>
+                  <c:v>88.709677419354833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.42116</c:v>
+                  <c:v>6.3391883032843808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4214700000000002</c:v>
+                  <c:v>83.851349188566303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39599000000000001</c:v>
+                  <c:v>6.3396073062232565</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38197000000000003</c:v>
+                  <c:v>83.866837387964154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,18 +4706,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet4!$A$3</c:f>
+              <c:f>FeatureSet3!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
+                  <c:v>RootMeanSquare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
+              <c:f>FeatureSet3!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4743,30 +4746,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet4!$B$3:$H$3</c:f>
+              <c:f>FeatureSet3!$J$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.89</c:v>
+                  <c:v>33.146067415730336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51999999999999991</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49299999999999994</c:v>
+                  <c:v>4.838709677419355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3202400000000001</c:v>
+                  <c:v>93.08700690162344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54814000000000007</c:v>
+                  <c:v>12.24672705739253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3060399999999994</c:v>
+                  <c:v>93.086373763004943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48747999999999997</c:v>
+                  <c:v>12.240717029449424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,18 +4780,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet4!$A$4</c:f>
+              <c:f>FeatureSet3!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpectralCrestFactor</c:v>
+                  <c:v>LowEnergy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
+              <c:f>FeatureSet3!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -4817,252 +4820,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet4!$B$4:$H$4</c:f>
+              <c:f>FeatureSet3!$J$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>3.9325842696629216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02</c:v>
+                  <c:v>7.8125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>6.4516129032258052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.011E-2</c:v>
+                  <c:v>0.57380479509217908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9870000000000001E-2</c:v>
+                  <c:v>3.9019237540411638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0049999999999995E-2</c:v>
+                  <c:v>0.57401893077181743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.989E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SubBandEnergyRatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7529999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2470000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7549999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2470000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chroma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.193</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4619999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4619999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4600000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.4880000000000007E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfMaximumInChromagram</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.0000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1199999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0999999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1100000000000009E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0899999999999999E-3</c:v>
+                  <c:v>3.8924455825864275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5070,546 +4851,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="115858816"/>
-        <c:axId val="115868800"/>
+        <c:axId val="45132800"/>
+        <c:axId val="45142784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115858816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115868800"/>
-        <c:crossesAt val="1.0000000000000013E-3"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115868800"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in [s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115858816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>64.251207729468575</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89.756097560975633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.95211786372008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.98391799768234</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>77.768999283803367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.1123216166052767</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37.677799917141783</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>33.285024154589358</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.3414634146341475</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.395948434622468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.424177621597572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.60430617245887</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>88.214301810568401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48.085383416520344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SpectralCrestFactor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.4830917874396134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24390243902439032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4732965009208105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57955895144766922</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95931810371683579</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82047142792757732</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9483714415356386</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SubBandEnergyRatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.3526570048309177</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24390243902439032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.657458563535912</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97575706784495386</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3639852649766995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3838413222598713</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1892718341257469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chroma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.4830917874396134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.048780487804879</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.771639042357279</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93370978415727712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.075364441318444</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3234070972314982</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3998106097969973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet4!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfMaximumInChromagram</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet4!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet4!$J$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.14492753623188404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36585365853658552</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7495395948434624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10287857727019209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22802673372579624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14565672540736768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69936278087948067</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115917568"/>
-        <c:axId val="115919104"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115917568"/>
+        <c:axId val="45132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115919104"/>
+        <c:crossAx val="45142784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115919104"/>
+        <c:axId val="45142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5642,7 +4902,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115917568"/>
+        <c:crossAx val="45132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5660,7 +4920,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -5676,7 +4936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$2</c:f>
+              <c:f>FeatureSet4!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5687,7 +4947,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5703,7 +4963,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -5716,30 +4976,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$2:$H$2</c:f>
+              <c:f>FeatureSet4!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.19</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.51</c:v>
+                  <c:v>7.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5099999999999999</c:v>
+                  <c:v>0.34700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.938072</c:v>
+                  <c:v>2.42116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9381519999999999</c:v>
+                  <c:v>2.4214700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32203999999999999</c:v>
+                  <c:v>0.39599000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33194400000000002</c:v>
+                  <c:v>0.38197000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5750,7 +5010,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$3</c:f>
+              <c:f>FeatureSet4!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5761,7 +5021,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5777,7 +5037,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -5790,30 +5050,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$3:$H$3</c:f>
+              <c:f>FeatureSet4!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.9099999999999993</c:v>
+                  <c:v>6.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42000000000000004</c:v>
+                  <c:v>0.51999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.49299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4561679999999999</c:v>
+                  <c:v>4.3202400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43879200000000002</c:v>
+                  <c:v>0.54814000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4452080000000005</c:v>
+                  <c:v>4.3060399999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39106399999999997</c:v>
+                  <c:v>0.48747999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5824,18 +5084,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$4</c:f>
+              <c:f>FeatureSet4!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpectralCentroid</c:v>
+                  <c:v>SpectralCrestFactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5851,7 +5111,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -5864,30 +5124,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$4:$H$4</c:f>
+              <c:f>FeatureSet4!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0823999999999999E-2</c:v>
+                  <c:v>4.011E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5744000000000001E-2</c:v>
+                  <c:v>2.9870000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0823999999999999E-2</c:v>
+                  <c:v>4.0049999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5736E-2</c:v>
+                  <c:v>2.989E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5898,18 +5158,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$5</c:f>
+              <c:f>FeatureSet4!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpectralRolloff</c:v>
+                  <c:v>SubBandEnergyRatio</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5925,7 +5185,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -5938,30 +5198,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$5:$H$5</c:f>
+              <c:f>FeatureSet4!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.12999999999999998</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>1.8000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6440000000000002E-2</c:v>
+                  <c:v>6.7529999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6343999999999999E-2</c:v>
+                  <c:v>4.2470000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6440000000000002E-2</c:v>
+                  <c:v>6.7549999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6304000000000004E-2</c:v>
+                  <c:v>4.2470000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5972,18 +5232,18 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$6</c:f>
+              <c:f>FeatureSet4!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SpectralFlux</c:v>
+                  <c:v>Chroma</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5999,7 +5259,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -6012,30 +5272,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$6:$H$6</c:f>
+              <c:f>FeatureSet4!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.21000000000000002</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0208E-2</c:v>
+                  <c:v>6.4619999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9599999999999999E-2</c:v>
+                  <c:v>6.4619999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0208E-2</c:v>
+                  <c:v>6.4600000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9616000000000001E-2</c:v>
+                  <c:v>6.4880000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6046,18 +5306,18 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet1!$A$7</c:f>
+              <c:f>FeatureSet4!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MFCC</c:v>
+                  <c:v>AmplitudeOfMaximumInChromagram</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:f>FeatureSet4!$B$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6073,7 +5333,7 @@
                   <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DSP  MATH Optimized</c:v>
+                  <c:v>DSP MATH Optimized</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>DSP FFT Optimized</c:v>
@@ -6086,30 +5346,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet1!$B$7:$H$7</c:f>
+              <c:f>FeatureSet4!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>3.0000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49</c:v>
+                  <c:v>3.0000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37431999999999999</c:v>
+                  <c:v>7.1199999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37252000000000002</c:v>
+                  <c:v>7.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37431999999999999</c:v>
+                  <c:v>7.1100000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37227199999999999</c:v>
+                  <c:v>7.0899999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6117,11 +5377,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="115446144"/>
-        <c:axId val="115447680"/>
+        <c:axId val="45380352"/>
+        <c:axId val="45381888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115446144"/>
+        <c:axId val="45380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6129,2797 +5389,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115447680"/>
-        <c:crossesAt val="1.0000000000000009E-3"/>
+        <c:crossAx val="45381888"/>
+        <c:crossesAt val="1.0000000000000018E-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115447680"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in [s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115446144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>60.200821542674589</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>86.025200458190156</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.677018633540371</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>33.208728122121329</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.945115739027969</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.651150856252257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.691647593298164</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>31.538110451848471</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.8109965635738847</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.950310559006212</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.221196868008946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.608974541397975</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81.852583962138652</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.801696895938925</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SpectralCentroid</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.5559105431309912</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6345933562428412</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.559006211180124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35681778304162826</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56005509485079419</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49474464485963543</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3601443813659528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SpectralRolloff</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.59333637608397993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45819014891179849</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5900621118012426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45304755011624337</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93712470901609002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62817174462585301</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2735916247744044</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SpectralFlux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.95846645367412175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45819014891179849</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2422360248447206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34626266614028156</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69722306015469804</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.48010947864596204</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6955129756529317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet1!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet1!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet1!$J$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>4.1533546325878596</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6128293241695308</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.981366459627331</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4139470105715661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.251506855552456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8932393134776575</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>32.17740652896962</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115492352"/>
-        <c:axId val="115493888"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115492352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115493888"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115493888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Anteil in</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115492352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>26.669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8650880000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8656879999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64957600000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64695999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>13.959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9096720000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87752799999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8874320000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7823119999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74559200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74463999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74426400000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74571200000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HammingWindow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8079999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.7503999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.784799999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.6360000000000007E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19678399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2956799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18712000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.129576</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$B$7:$H$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.526616</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5078480000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85263999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115600000"/>
-        <c:axId val="115609984"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115600000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115609984"/>
-        <c:crossesAt val="1.0000000000000009E-3"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115609984"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in [s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115600000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>57.354838709677431</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>71.374045801526734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.077389984825494</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.078670269079534</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.331857715743972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.4736924770841151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.132189845529567</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>30.021505376344091</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5324427480916034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.41578148710167</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.984346476843825</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.425550752564972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>68.640338813054058</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.344091910529126</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.3763440860215059</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9618320610687023</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.781487101669194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6093998178731113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.6953283683141525</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4173557178290643</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.205168100175506</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HammingWindow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0107526881720432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4828244274809164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2564491654021239</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36172590806143196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.61850945263267543</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57651477643010496</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7538181953970053</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.64516129032258074</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1450381679389317</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.248861911987861</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4804881674700672</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.869954689859902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.864843122763125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0321637062945763</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2!$I$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2!$J$7:$P$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.5913978494623668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.503816793893129</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45.220030349013655</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.485369360672026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.058799020884331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.02725509283953</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26.532568242074209</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115658752"/>
-        <c:axId val="115660288"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115658752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115660288"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115660288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Anteil in</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115658752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>26.669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8650880000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8656879999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64957600000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64695999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>13.959999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9096720000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.87752799999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8874320000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7823119999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.57</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74559200000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74463999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74426400000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74571200000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19678399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2956799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18712000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.129576</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.526616</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84936</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5078480000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85263999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="91488256"/>
-        <c:axId val="91489792"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="91488256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91489792"/>
-        <c:crossesAt val="1.0000000000000013E-3"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91489792"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in [s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91488256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$J$2:$P$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>57.940473604171203</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>73.94957983193278</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.207357859531772</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.184237216160493</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.645102461765497</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5112306841054339</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20.491574813125553</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$J$3:$P$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>30.328046925917885</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6959960454770151</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.88628762541806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52.173069988021524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.496658673195601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.038355131793139</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.77866463955403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$I$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$J$4:$P$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.4108190310666959</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1408798813643104</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.391304347826082</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.62976413330603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.7556680976656835</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.4603658292102031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.619409603446094</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$J$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.65174885943949612</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1863568956994566</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6822742474916392</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.485862918604939</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.974946337536892</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8756565599865278</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1041429114405164</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet2d!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet2d!$J$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.6689115794047371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.027187345526446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49.832775919732441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.527065743907013</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.127624429836333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.114391794904694</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.006208032433801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115783168"/>
-        <c:axId val="115784704"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115783168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115784704"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115784704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Anteil in</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> [%]</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115783168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet3!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZeroCrossingRate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet3!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet3!$B$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.1200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26205000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.26195999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.26207999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet3!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RootMeanSquare</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet3!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet3!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8480399999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8260000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8481999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.8240000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FeatureSet3!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LowEnergy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FeatureSet3!$B$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Unoptimized</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NEON Autocompiler</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>NEON FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP MATH Optimized</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>DSP FFT Optimized</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FeatureSet3!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3720000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2189999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3730000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2160000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="75"/>
-        <c:overlap val="100"/>
-        <c:axId val="115710976"/>
-        <c:axId val="115720960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="115710976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115720960"/>
-        <c:crossesAt val="1.0000000000000009E-3"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115720960"/>
+        <c:axId val="45381888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8946,7 +5423,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115710976"/>
+        <c:crossAx val="45380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8964,7 +5441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -8980,18 +5457,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet3!$I$2</c:f>
+              <c:f>FeatureSet4!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ZeroCrossingRate</c:v>
+                  <c:v>FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet3!$J$1:$P$1</c:f>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -9020,30 +5497,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet3!$J$2:$P$2</c:f>
+              <c:f>FeatureSet4!$J$2:$P$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.921348314606746</c:v>
+                  <c:v>64.251207729468575</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.062499999999986</c:v>
+                  <c:v>89.756097560975633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.709677419354833</c:v>
+                  <c:v>31.95211786372008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3391883032843808</c:v>
+                  <c:v>34.98391799768234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.851349188566303</c:v>
+                  <c:v>77.768999283803367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3396073062232565</c:v>
+                  <c:v>8.1123216166052767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.866837387964154</c:v>
+                  <c:v>37.677799917141783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9054,18 +5531,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet3!$I$3</c:f>
+              <c:f>FeatureSet4!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RootMeanSquare</c:v>
+                  <c:v>AmplitudeOfSpectrum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet3!$J$1:$P$1</c:f>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -9094,30 +5571,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet3!$J$3:$P$3</c:f>
+              <c:f>FeatureSet4!$J$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.146067415730336</c:v>
+                  <c:v>33.285024154589358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125</c:v>
+                  <c:v>6.3414634146341475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.838709677419355</c:v>
+                  <c:v>45.395948434622468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.08700690162344</c:v>
+                  <c:v>62.424177621597572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.24672705739253</c:v>
+                  <c:v>17.60430617245887</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.086373763004943</c:v>
+                  <c:v>88.214301810568401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.240717029449424</c:v>
+                  <c:v>48.085383416520344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9128,18 +5605,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>FeatureSet3!$I$4</c:f>
+              <c:f>FeatureSet4!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LowEnergy</c:v>
+                  <c:v>SpectralCrestFactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FeatureSet3!$J$1:$P$1</c:f>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -9168,30 +5645,252 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FeatureSet3!$J$4:$P$4</c:f>
+              <c:f>FeatureSet4!$J$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.9325842696629216</c:v>
+                  <c:v>0.4830917874396134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8125</c:v>
+                  <c:v>0.24390243902439032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4516129032258052</c:v>
+                  <c:v>1.4732965009208105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57380479509217908</c:v>
+                  <c:v>0.57955895144766922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9019237540411638</c:v>
+                  <c:v>0.95931810371683579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57401893077181743</c:v>
+                  <c:v>0.82047142792757732</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8924455825864275</c:v>
+                  <c:v>2.9483714415356386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet4!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SubBandEnergyRatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet4!$J$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3526570048309177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24390243902439032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.657458563535912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97575706784495386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3639852649766995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3838413222598713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1892718341257469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet4!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chroma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet4!$J$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.4830917874396134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.048780487804879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.771639042357279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93370978415727712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.075364441318444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3234070972314982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3998106097969973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet4!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfMaximumInChromagram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet4!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet4!$J$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14492753623188404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36585365853658552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7495395948434624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10287857727019209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22802673372579624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14565672540736768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69936278087948067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9199,25 +5898,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="115750784"/>
-        <c:axId val="115752320"/>
+        <c:axId val="45438848"/>
+        <c:axId val="45440384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115750784"/>
+        <c:axId val="45438848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115752320"/>
+        <c:crossAx val="45440384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115752320"/>
+        <c:axId val="45440384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9250,7 +5949,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115750784"/>
+        <c:crossAx val="45438848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9259,6 +5958,4375 @@
       <c:legendPos val="r"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$56:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.221196868008938</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.984346476843811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.139677820637964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.424177621597579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$55:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.208728122121329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.078670269079538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.246265352144622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.983917997682347</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralCentroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$57:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.3568177830416282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralRolloff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45304755011624337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$59:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34626266614028162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$60:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4139470105715661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6093998178731121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6120165107572086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HammingWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$61:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36172590806143196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$62:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4804881674700672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4844478657517617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$63:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.485369360672026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.51759245070844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RootMeanSquare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$65:$F$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.087006901623454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZeroCrossingRate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$64:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.339188303284379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LowEnergy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$66:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57380479509217897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralCrestFactor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$67:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57955895144766911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SubBandEnergyRatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$68:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97575706784495397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chroma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$69:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93370978415727701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfMaximumInChromagram</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$B$54:$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>FeatureSet 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FeatureSet 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FeatureSet 2d</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FeatureSet 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FeatureSet 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$70:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10287857727019209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44599552"/>
+        <c:axId val="44609536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44599552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44609536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44609536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44599552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.938072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9381519999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32203999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33194400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.9099999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4561679999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43879200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4452080000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39106399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralCentroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0823999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5744000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0823999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5736E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralRolloff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6440000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6343999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6440000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6304000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0208E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0208E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9616000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP  MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37431999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37227199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44777856"/>
+        <c:axId val="44779392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44777856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44779392"/>
+        <c:crossesAt val="1.0000000000000013E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44779392"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44777856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60.200821542674589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.025200458190156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.677018633540371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.208728122121329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.945115739027969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.651150856252257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.691647593298164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.538110451848471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8109965635738847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.950310559006212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.221196868008946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.608974541397975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.852583962138652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.801696895938925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralCentroid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.5559105431309912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6345933562428412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.559006211180124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35681778304162826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56005509485079419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49474464485963543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3601443813659528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralRolloff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59333637608397993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45819014891179849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5900621118012426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45304755011624337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93712470901609002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62817174462585301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2735916247744044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpectralFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.95846645367412175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45819014891179849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2422360248447206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34626266614028156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69722306015469804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48010947864596204</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6955129756529317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet1!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet1!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet1!$J$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1533546325878596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6128293241695308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.981366459627331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4139470105715661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.251506855552456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8932393134776575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.17740652896962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44709376"/>
+        <c:axId val="44710912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44709376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44710912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44710912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44709376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8650880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8656879999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64957600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64695999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9096720000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87752799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8874320000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7823119999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74559200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74463999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74426400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74571200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HammingWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8079999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7503999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.784799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6360000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19678399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2956799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18712000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.526616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5078480000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85263999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44829696"/>
+        <c:axId val="44851968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44829696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44851968"/>
+        <c:crossesAt val="1.0000000000000013E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44851968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44829696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57.354838709677431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.374045801526734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.077389984825494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.078670269079534</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.331857715743972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4736924770841151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.132189845529567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.021505376344091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5324427480916034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.41578148710167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.984346476843825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.425550752564972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.640338813054058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.344091910529126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3763440860215059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9618320610687023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.781487101669194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6093998178731113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6953283683141525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4173557178290643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.205168100175506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HammingWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0107526881720432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4828244274809164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2564491654021239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36172590806143196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61850945263267543</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57651477643010496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7538181953970053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64516129032258074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1450381679389317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.248861911987861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4804881674700672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.869954689859902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.864843122763125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0321637062945763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2!$J$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5913978494623668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.503816793893129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.220030349013655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.485369360672026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.058799020884331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.02725509283953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.532568242074209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44896640"/>
+        <c:axId val="44898176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44896640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44898176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44898176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44896640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>26.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8650880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8656879999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64957600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64695999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9096720000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87752799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8874320000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7823119999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74559200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74463999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74426400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74571200000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19678399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2956799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18712000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.129576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.526616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5078480000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85263999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="44991232"/>
+        <c:axId val="44992768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44991232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44992768"/>
+        <c:crossesAt val="1.0000000000000018E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44992768"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44991232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$J$2:$P$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57.940473604171203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.94957983193278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.207357859531772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.184237216160493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.645102461765497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5112306841054339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.491574813125553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$J$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.328046925917885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6959960454770151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.88628762541806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.173069988021524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.496658673195601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.038355131793139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.77866463955403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$J$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4108190310666959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1408798813643104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.391304347826082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.62976413330603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7556680976656835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4603658292102031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.619409603446094</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$J$5:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.65174885943949612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1863568956994566</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6822742474916392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.485862918604939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.974946337536892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8756565599865278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1041429114405164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet2d!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet2d!$J$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet2d!$J$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.6689115794047371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.027187345526446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.832775919732441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.527065743907013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.127624429836333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.114391794904694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.006208032433801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="45036672"/>
+        <c:axId val="45038208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45036672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45038208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45038208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anteil in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45036672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZeroCrossingRate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet3!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26205000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26195999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26207999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RootMeanSquare</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet3!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8480399999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8260000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8481999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8240000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FeatureSet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LowEnergy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FeatureSet3!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Unoptimized</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEON Autocompiler</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NEON FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP MATH Optimized</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DSP FFT Optimized</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DSP FFT &amp; MATH Optimized</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FeatureSet3!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3720000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2189999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3730000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2160000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="45097344"/>
+        <c:axId val="45098880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45097344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45098880"/>
+        <c:crossesAt val="1.0000000000000013E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45098880"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45097344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -9295,6 +10363,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9913,10 +11011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD22"/>
+  <dimension ref="A1:BD71"/>
   <sheetViews>
-    <sheetView topLeftCell="P10" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9974,71 +11072,71 @@
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" s="2"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="13" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="13" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="17" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
+      <c r="AS1" s="19"/>
+      <c r="AT1" s="19"/>
+      <c r="AU1" s="19"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="19"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="19"/>
+      <c r="BB1" s="19"/>
+      <c r="BC1" s="19"/>
+      <c r="BD1" s="19"/>
     </row>
     <row r="2" spans="1:56">
       <c r="A2" s="2"/>
@@ -12315,6 +13413,471 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
     </row>
+    <row r="54" spans="1:36">
+      <c r="B54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="15"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="15"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AC54" s="15"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="15"/>
+    </row>
+    <row r="55" spans="1:36">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <f>E3/B$71*100</f>
+        <v>33.208728122121329</v>
+      </c>
+      <c r="C55" s="1">
+        <f>L3/C$71*100</f>
+        <v>29.078670269079538</v>
+      </c>
+      <c r="D55">
+        <f>S3/D$71*100</f>
+        <v>29.246265352144622</v>
+      </c>
+      <c r="E55">
+        <f>Z3/E$71*100</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>AG3/F$71*100</f>
+        <v>34.983917997682347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36">
+      <c r="A56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ref="B56:B70" si="0">E4/B$71*100</f>
+        <v>59.221196868008938</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:C70" si="1">L4/C$71*100</f>
+        <v>51.984346476843811</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D70" si="2">S4/D$71*100</f>
+        <v>52.139677820637964</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E70" si="3">Z4/E$71*100</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F70" si="4">AG4/F$71*100</f>
+        <v>62.424177621597579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3568177830416282</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45304755011624337</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34626266614028162</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4139470105715661</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6093998178731121</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>5.6120165107572086</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36">
+      <c r="A61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36172590806143196</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4804881674700672</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>1.4844478657517617</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>11.485369360672026</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>11.51759245070844</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>6.339188303284379</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>93.087006901623454</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>0.57380479509217897</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>0.57955895144766911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>0.97575706784495397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>0.93370978415727701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0.10287857727019209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71">
+        <f>SUM(E3:E18)</f>
+        <v>0.72950400000000004</v>
+      </c>
+      <c r="C71">
+        <f>SUM(L3:L18)</f>
+        <v>1.6614790000000002</v>
+      </c>
+      <c r="D71">
+        <f>SUM(S3:S18)</f>
+        <v>0.828793</v>
+      </c>
+      <c r="E71">
+        <f>SUM(Z3:Z18)</f>
+        <v>0.41338099999999994</v>
+      </c>
+      <c r="F71">
+        <f>SUM(AG3:AG18)</f>
+        <v>0.69207799999999997</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="W1:AC1"/>
@@ -12337,7 +13900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13325,7 +14888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -13429,31 +14992,31 @@
         <v>6</v>
       </c>
       <c r="J2" s="1">
-        <f>B2*100/J7</f>
+        <f t="shared" ref="J2:P2" si="0">B2*100/J7</f>
         <v>57.940473604171203</v>
       </c>
       <c r="K2" s="1">
-        <f>C2*100/K7</f>
+        <f t="shared" si="0"/>
         <v>73.94957983193278</v>
       </c>
       <c r="L2" s="1">
-        <f>D2*100/L7</f>
+        <f t="shared" si="0"/>
         <v>12.207357859531772</v>
       </c>
       <c r="M2" s="1">
-        <f>E2*100/M7</f>
+        <f t="shared" si="0"/>
         <v>29.184237216160493</v>
       </c>
       <c r="N2" s="1">
-        <f>F2*100/N7</f>
+        <f t="shared" si="0"/>
         <v>50.645102461765497</v>
       </c>
       <c r="O2" s="1">
-        <f>G2*100/O7</f>
+        <f t="shared" si="0"/>
         <v>6.5112306841054339</v>
       </c>
       <c r="P2" s="1">
-        <f>H2*100/P7</f>
+        <f t="shared" si="0"/>
         <v>20.491574813125553</v>
       </c>
     </row>
@@ -13493,31 +15056,31 @@
         <v>21</v>
       </c>
       <c r="J3" s="1">
-        <f>B3*100/J7</f>
+        <f t="shared" ref="J3:P3" si="1">B3*100/J7</f>
         <v>30.328046925917885</v>
       </c>
       <c r="K3" s="1">
-        <f>C3*100/K7</f>
+        <f t="shared" si="1"/>
         <v>4.6959960454770151</v>
       </c>
       <c r="L3" s="1">
-        <f>D3*100/L7</f>
+        <f t="shared" si="1"/>
         <v>15.88628762541806</v>
       </c>
       <c r="M3" s="1">
-        <f>E3*100/M7</f>
+        <f t="shared" si="1"/>
         <v>52.173069988021524</v>
       </c>
       <c r="N3" s="1">
-        <f>F3*100/N7</f>
+        <f t="shared" si="1"/>
         <v>11.496658673195601</v>
       </c>
       <c r="O3" s="1">
-        <f>G3*100/O7</f>
+        <f t="shared" si="1"/>
         <v>69.038355131793139</v>
       </c>
       <c r="P3" s="1">
-        <f>H3*100/P7</f>
+        <f t="shared" si="1"/>
         <v>24.77866463955403</v>
       </c>
     </row>
@@ -13557,31 +15120,31 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f>B4*100/J7</f>
+        <f t="shared" ref="J4:P4" si="2">B4*100/J7</f>
         <v>3.4108190310666959</v>
       </c>
       <c r="K4" s="1">
-        <f>C4*100/K7</f>
+        <f t="shared" si="2"/>
         <v>5.1408798813643104</v>
       </c>
       <c r="L4" s="1">
-        <f>D4*100/L7</f>
+        <f t="shared" si="2"/>
         <v>17.391304347826082</v>
       </c>
       <c r="M4" s="1">
-        <f>E4*100/M7</f>
+        <f t="shared" si="2"/>
         <v>5.62976413330603</v>
       </c>
       <c r="N4" s="1">
-        <f>F4*100/N7</f>
+        <f t="shared" si="2"/>
         <v>9.7556680976656835</v>
       </c>
       <c r="O4" s="1">
-        <f>G4*100/O7</f>
+        <f t="shared" si="2"/>
         <v>7.4603658292102031</v>
       </c>
       <c r="P4" s="1">
-        <f>H4*100/P7</f>
+        <f t="shared" si="2"/>
         <v>23.619409603446094</v>
       </c>
     </row>
@@ -13641,11 +15204,11 @@
         <v>16.974946337536892</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:P5" si="0">G5*100/O7</f>
+        <f t="shared" ref="O5:P5" si="3">G5*100/O7</f>
         <v>1.8756565599865278</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.1041429114405164</v>
       </c>
     </row>
@@ -13705,11 +15268,11 @@
         <v>11.127624429836333</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:P6" si="1">G6*100/O7</f>
+        <f t="shared" ref="O6:P6" si="4">G6*100/O7</f>
         <v>15.114391794904694</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27.006208032433801</v>
       </c>
     </row>
@@ -13736,11 +15299,11 @@
         <v>7.6328959999999988</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:P7" si="2">SUM(G2:G6)</f>
+        <f t="shared" ref="O7:P7" si="5">SUM(G2:G6)</f>
         <v>9.9762400000000007</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1572</v>
       </c>
     </row>
